--- a/data_raw/Summary_metadata/Oman_Geochem_2012-2018.xlsx
+++ b/data_raw/Summary_metadata/Oman_Geochem_2012-2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/thesis_prep/manuscripts/Origin_CH4_Oman/Oman_CH4_stable_isotopes/data_raw/Summary_metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46A0FE9-3FB0-C846-8CB2-12CB4F7A719F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2CD9A5-70D4-4146-8471-01BDCF95EAF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38260" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="37800" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5172" uniqueCount="268">
   <si>
     <t>NSHQ3B</t>
   </si>
@@ -829,6 +829,12 @@
   <si>
     <t>long_deg_E_WGS84</t>
   </si>
+  <si>
+    <t>CH4_d13C_permil_VPDB_ISOTECH</t>
+  </si>
+  <si>
+    <t>CH4_d13C_unc_permil_ISOTECH</t>
+  </si>
 </sst>
 </file>
 
@@ -963,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1082,6 +1088,9 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1105,10 +1114,10 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,7 +1130,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="226">
+  <dxfs count="228">
     <dxf>
       <font>
         <b val="0"/>
@@ -1517,6 +1526,76 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Courier New"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -8239,217 +8318,219 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C5C9D3E-DAF5-5B43-AC62-58E40DABE2E7}" name="Table1" displayName="Table1" ref="A1:HO48" totalsRowShown="0" headerRowDxfId="225" dataDxfId="224" tableBorderDxfId="223">
-  <autoFilter ref="A1:HO48" xr:uid="{146DAB82-C62D-B74F-8C10-4E0BA5A78741}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:HO48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2C5C9D3E-DAF5-5B43-AC62-58E40DABE2E7}" name="Table1" displayName="Table1" ref="A1:HQ48" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226" tableBorderDxfId="225">
+  <autoFilter ref="A1:HQ48" xr:uid="{146DAB82-C62D-B74F-8C10-4E0BA5A78741}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:HQ48">
     <sortCondition descending="1" ref="B1:B48"/>
   </sortState>
-  <tableColumns count="223">
-    <tableColumn id="1" xr3:uid="{BFF457DA-4FAB-D144-8C31-CB514862FC48}" name="sampling_site" dataDxfId="222"/>
-    <tableColumn id="2" xr3:uid="{4D369E96-9F6D-5D42-97C0-01D4733C4360}" name="year_sampled" dataDxfId="221"/>
-    <tableColumn id="197" xr3:uid="{2184662C-58E1-CF46-8E88-488B84A33E9E}" name="month_sampled" dataDxfId="220"/>
-    <tableColumn id="202" xr3:uid="{6AB3C9C2-7261-E248-84CE-01C4BB3AA059}" name="day_sampled" dataDxfId="219"/>
-    <tableColumn id="3" xr3:uid="{99B7B287-641A-9C4E-A16D-8493DFD5D11A}" name="depth_fluid_intake_mbct" dataDxfId="218"/>
-    <tableColumn id="204" xr3:uid="{CB73FC66-237D-D942-9585-B911630C1741}" name="notes" dataDxfId="217"/>
-    <tableColumn id="198" xr3:uid="{ED8E9DA0-D8CC-2347-9B03-5C4B727F1F8E}" name="sampling_method" dataDxfId="216"/>
-    <tableColumn id="191" xr3:uid="{81149577-5341-8743-9700-35E42F2F28BC}" name="upper_packer_inflated" dataDxfId="215"/>
-    <tableColumn id="193" xr3:uid="{2165463B-4BC6-B742-8EE0-30E11BFDB984}" name="upper_packer_depth_mbct" dataDxfId="214"/>
-    <tableColumn id="192" xr3:uid="{4D76310D-44CA-5642-A036-B307A14DC691}" name="lower_packer_inflated" dataDxfId="213"/>
-    <tableColumn id="122" xr3:uid="{A9EB01AA-DD03-C748-A8E4-105B4565D017}" name="lower_packer_depth_mbct" dataDxfId="212"/>
-    <tableColumn id="195" xr3:uid="{A40D7A19-51C2-9B47-8A72-9D23679BC709}" name="well_depth_mbgl" dataDxfId="211"/>
-    <tableColumn id="194" xr3:uid="{38B5F7E8-B0B6-164A-9157-EE6C5773A54E}" name="casing_extent_mbct" dataDxfId="210"/>
-    <tableColumn id="203" xr3:uid="{A6E0EFF9-8B45-EA49-8E31-79AC5CC02F62}" name="casing_height_magl" dataDxfId="209"/>
-    <tableColumn id="196" xr3:uid="{6996A526-1193-AF43-A0E8-5AA6E9D5C7DA}" name="screened_interval_mbct" dataDxfId="208"/>
-    <tableColumn id="4" xr3:uid="{662943D7-6392-FE4F-8AB5-DF3DC5EA5253}" name="depth_to_water_mbct" dataDxfId="207"/>
-    <tableColumn id="199" xr3:uid="{4C8D1828-0F5F-554D-AA7F-372CCC657FBE}" name="first_publication_author" dataDxfId="206"/>
-    <tableColumn id="200" xr3:uid="{0FA60879-BE06-A841-8857-0590F005859F}" name="first_publication_year" dataDxfId="205"/>
-    <tableColumn id="201" xr3:uid="{A8B65462-3258-AE44-858A-E255551307CB}" name="first_publication_title" dataDxfId="204"/>
-    <tableColumn id="5" xr3:uid="{BE2716D5-7D32-1642-A2C9-5E25BB10DB1D}" name="water_type" dataDxfId="203"/>
-    <tableColumn id="6" xr3:uid="{2E331599-AAC7-A04E-B39F-436544E07208}" name="UTM_Easting_40N" dataDxfId="202"/>
-    <tableColumn id="7" xr3:uid="{47C8D443-718B-4840-988B-FC1B90F9A26C}" name="UTM_Northing_40N" dataDxfId="201"/>
-    <tableColumn id="223" xr3:uid="{4012E4E3-FD5A-B74F-8AE8-3FF216C1240D}" name="lat_deg_N_WGS84" dataDxfId="200"/>
-    <tableColumn id="111" xr3:uid="{D63A2B99-E083-2C47-926B-6EE804942A9F}" name="long_deg_E_WGS84" dataDxfId="199"/>
-    <tableColumn id="8" xr3:uid="{F7E1D22A-BC9A-CC44-9CF3-55157A7A0842}" name="elevation_masl" dataDxfId="198"/>
-    <tableColumn id="9" xr3:uid="{974FFE02-717D-404D-B5F1-08DEFF1841D1}" name="pH" dataDxfId="197"/>
-    <tableColumn id="10" xr3:uid="{8B7B1567-CDC4-1F41-89E0-0D86D8CAB230}" name="temp_C" dataDxfId="196"/>
-    <tableColumn id="11" xr3:uid="{1AE6B306-EEF7-5047-877C-7B2094B1F54A}" name="conductivity_uS_cm" dataDxfId="195"/>
-    <tableColumn id="12" xr3:uid="{A131457C-E8DD-3741-A1DF-FF6BA30C92AC}" name="Eh_mV" dataDxfId="194"/>
-    <tableColumn id="13" xr3:uid="{91F4DFC3-3BC4-F149-BF12-4D26BBB69840}" name="Na_total_uM" dataDxfId="193"/>
-    <tableColumn id="14" xr3:uid="{AB29206E-3E5C-854B-BD43-E19799D63F07}" name="Na_total_was_measured" dataDxfId="192"/>
-    <tableColumn id="15" xr3:uid="{940B7E06-86C3-9E40-93F2-2E57CFAF0526}" name="Na_total_LQ_uM" dataDxfId="191"/>
-    <tableColumn id="16" xr3:uid="{F1D07B91-2952-7642-AA4B-55BC1D2E40A3}" name="Ca_total_uM" dataDxfId="190"/>
-    <tableColumn id="17" xr3:uid="{6D4AB350-C11B-1D4D-A054-E46716332D19}" name="Ca_total_was_measured" dataDxfId="189"/>
-    <tableColumn id="18" xr3:uid="{F02EAD41-6DE8-154C-B103-57F0F807C3C3}" name="Ca_total_LQ_uM" dataDxfId="188"/>
-    <tableColumn id="19" xr3:uid="{09B3C774-6E76-4343-9ACF-C772568AC55C}" name="Mg_total_uM" dataDxfId="187"/>
-    <tableColumn id="20" xr3:uid="{90D4F63F-0CDC-5C46-BCD9-8A34377251FD}" name="Mg_total_was_measured" dataDxfId="186"/>
-    <tableColumn id="21" xr3:uid="{A8F5806F-819E-5F49-AA26-9F3239779B38}" name="Mg_total_LQ_uM" dataDxfId="185"/>
-    <tableColumn id="222" xr3:uid="{511C6AF6-1B0C-DF43-B88E-8E190E06B5FF}" name="K_total_uM" dataDxfId="184"/>
-    <tableColumn id="221" xr3:uid="{48475239-412B-1847-8724-4F9EDC40CA96}" name="K_total_was_measured" dataDxfId="183"/>
-    <tableColumn id="220" xr3:uid="{605EA04D-8759-A24D-AC07-D3BD15567F48}" name="K_total_LQ_uM" dataDxfId="182"/>
-    <tableColumn id="219" xr3:uid="{CC43D0CD-A0BC-0246-9754-3C2B82F1AA91}" name="Li_total_uM" dataDxfId="181"/>
-    <tableColumn id="218" xr3:uid="{C99F2235-973D-5849-9144-5CAE5A9B25C0}" name="Li_total_was_measured" dataDxfId="180"/>
-    <tableColumn id="217" xr3:uid="{AEF5640A-B470-5548-9AE3-919980A26B6D}" name="Li_total_LQ_uM" dataDxfId="179"/>
-    <tableColumn id="216" xr3:uid="{9264F891-4872-C74C-885B-7E25DFF1198D}" name="Ba_total_uM" dataDxfId="178"/>
-    <tableColumn id="215" xr3:uid="{961027B5-4998-A04E-B284-66AF3D6BCBB8}" name="Ba_total_was_measured" dataDxfId="177"/>
-    <tableColumn id="214" xr3:uid="{60D3366C-B2C7-204E-AA59-E316D7DD687B}" name="Ba_total_LQ_uM" dataDxfId="176"/>
-    <tableColumn id="213" xr3:uid="{A27E3BAE-492D-1342-9D7E-81F693634F31}" name="B_total_uM" dataDxfId="175"/>
-    <tableColumn id="212" xr3:uid="{F04851F5-E507-A345-8A84-E15CB8286805}" name="B_total_was_measured" dataDxfId="174"/>
-    <tableColumn id="211" xr3:uid="{45E86A89-999B-4040-B206-688FD63E63AF}" name="B_total_LQ_uM" dataDxfId="173"/>
-    <tableColumn id="210" xr3:uid="{FFE512AF-6524-354A-A5EB-7E85723791EF}" name="Sr_total_uM" dataDxfId="172"/>
-    <tableColumn id="209" xr3:uid="{CCCCD549-40F0-A340-B84C-B1C9906FF2DF}" name="Sr_total_was_measured" dataDxfId="171"/>
-    <tableColumn id="208" xr3:uid="{EC1068D6-BF98-5942-B44D-959D3D0CAF65}" name="Sr_total_LQ_uM" dataDxfId="170"/>
-    <tableColumn id="207" xr3:uid="{FDF2B454-94C3-D54C-9CB8-0A79796C4504}" name="Mn_total_uM" dataDxfId="169"/>
-    <tableColumn id="206" xr3:uid="{6B5D2E5D-E51B-5641-AB07-0A9BD4334F4E}" name="Mn_total_was_measured" dataDxfId="168"/>
-    <tableColumn id="205" xr3:uid="{8B0FCE6A-4301-DF4F-9B74-6834676E7F47}" name="Mn_total_LQ_uM" dataDxfId="167"/>
-    <tableColumn id="22" xr3:uid="{87688FA7-E338-8D4D-B458-AE89FABE0EB0}" name="SiO2_uM" dataDxfId="166"/>
-    <tableColumn id="23" xr3:uid="{600DC6F5-049C-F644-870A-21F7554DFC2D}" name="SiO2_was_measured" dataDxfId="165"/>
-    <tableColumn id="24" xr3:uid="{8A3894DA-0BDB-294D-9ECC-F9E29F72FB2C}" name="SiO2_LQ_uM" dataDxfId="164"/>
-    <tableColumn id="121" xr3:uid="{9811F981-6538-E04C-B696-12204BA74A40}" name="Si_total_uM" dataDxfId="163"/>
-    <tableColumn id="120" xr3:uid="{A3EB8059-1AD0-FC47-9644-056A8DF67485}" name="Si_total_was_measured" dataDxfId="162"/>
-    <tableColumn id="119" xr3:uid="{C278EB56-D293-7042-9178-03BA1DAED1B0}" name="Si_total_LQ_uM" dataDxfId="161"/>
-    <tableColumn id="25" xr3:uid="{15D3CDED-2D00-3345-A629-0453430BC221}" name="Chloride_uM" dataDxfId="160"/>
-    <tableColumn id="26" xr3:uid="{79F6773F-AF1E-EF4F-ABC1-439004D67550}" name="Chloride_was_measured" dataDxfId="159"/>
-    <tableColumn id="27" xr3:uid="{D6D2E3A8-4ABB-B04E-8DD6-81882A868407}" name="Chloride_LQ_uM" dataDxfId="158"/>
-    <tableColumn id="28" xr3:uid="{B6885C42-9941-EE43-90DA-34CFDB01FB13}" name="Bromide_uM" dataDxfId="157"/>
-    <tableColumn id="29" xr3:uid="{C0014D59-D121-5D4C-BB28-80717363BF5E}" name="Bromide_was_measured" dataDxfId="156"/>
-    <tableColumn id="30" xr3:uid="{FC076F39-F5DD-064F-8F34-2D583674C4F7}" name="Bromide_LQ_uM" dataDxfId="155"/>
-    <tableColumn id="31" xr3:uid="{4ABD736D-7B0B-9949-9C32-8ECAB5C8E875}" name="Fluoride_uM" dataDxfId="154"/>
-    <tableColumn id="32" xr3:uid="{DCA65C71-009F-B340-8F47-F690F5FA2A8F}" name="Fluoride_was_measured" dataDxfId="153"/>
-    <tableColumn id="33" xr3:uid="{636556AA-D1E6-5845-90A9-8CDB8CC9CE98}" name="Fluoride_LQ_uM" dataDxfId="152"/>
-    <tableColumn id="34" xr3:uid="{D49325CE-6059-B94A-AFBE-54B552E5FDDB}" name="Al_total_uM" dataDxfId="151"/>
-    <tableColumn id="35" xr3:uid="{71732A0E-042D-4C48-8098-B6CCB8CA583E}" name="Al_total_was_measured" dataDxfId="150"/>
-    <tableColumn id="36" xr3:uid="{44D8CF15-EEC6-DB4A-B479-D5D2582DA001}" name="Al_total_LQ_uM" dataDxfId="149"/>
-    <tableColumn id="37" xr3:uid="{820D5B14-810B-BD4D-8148-D595260B885E}" name="Fe_II_uM" dataDxfId="148"/>
-    <tableColumn id="38" xr3:uid="{C2171954-1982-844E-B36F-17C497836502}" name="Fe_II_was_measured" dataDxfId="147"/>
-    <tableColumn id="39" xr3:uid="{5B9DE32D-B978-3548-81F9-982AB2553F39}" name="Fe_II_LQ_uM" dataDxfId="146"/>
-    <tableColumn id="40" xr3:uid="{33D70BFC-29CA-0B44-8292-FC8F9E0CF4C4}" name="Fe_total_uM" dataDxfId="145"/>
-    <tableColumn id="41" xr3:uid="{6B90E701-CFDF-C547-BB78-C78EDF029D20}" name="Fe_total_was_measured" dataDxfId="144"/>
-    <tableColumn id="42" xr3:uid="{15E4DD79-DBFF-4645-A2FF-1DE4BBCD141F}" name="Fe_total_LQ_uM" dataDxfId="143"/>
-    <tableColumn id="43" xr3:uid="{CB5F556F-C6F6-C446-9782-3681C0BD6229}" name="Ammonium_uM" dataDxfId="142"/>
-    <tableColumn id="44" xr3:uid="{06CD7B74-27A6-8747-9EB1-FA54FD3FBD0F}" name="Ammonium_was_measured" dataDxfId="141"/>
-    <tableColumn id="45" xr3:uid="{ADD7B47F-C6EF-5246-9733-BD395CFD8198}" name="Ammonium_LQ_uM" dataDxfId="140"/>
-    <tableColumn id="46" xr3:uid="{1DC76DA0-6047-404D-9B5A-B3BB4C0F44E6}" name="Sulfate_uM" dataDxfId="139"/>
-    <tableColumn id="47" xr3:uid="{4FA93857-2C2B-AE42-92B2-D3BD3658CC28}" name="Sulfate_was_measured" dataDxfId="138"/>
-    <tableColumn id="48" xr3:uid="{93539CD8-BCFE-2843-AA4B-4505E26A6814}" name="Sulfate_LQ_uM" dataDxfId="137"/>
-    <tableColumn id="49" xr3:uid="{BC16A54B-8400-D34D-9BCE-455FBA15FC1A}" name="Nitrate_uM" dataDxfId="136"/>
-    <tableColumn id="50" xr3:uid="{52E451C9-934F-5047-B12E-35C7341456AF}" name="Nitrate_was_measured" dataDxfId="135"/>
-    <tableColumn id="51" xr3:uid="{92E6F5E9-027F-E144-A7C9-A0050F58150C}" name="Nitrate_LQ_uM" dataDxfId="134"/>
-    <tableColumn id="52" xr3:uid="{4DF5F4F8-1854-3144-BEE4-A2DA9FCEFDCF}" name="Nitrite_uM" dataDxfId="133"/>
-    <tableColumn id="53" xr3:uid="{2B422929-9238-2F4E-A3EB-4F5B62AA09F5}" name="Nitrite_was_measured" dataDxfId="132"/>
-    <tableColumn id="54" xr3:uid="{7E46B788-1AC4-BE4E-A5C9-F23BAB0644D7}" name="Nitrite_LQ_uM" dataDxfId="131"/>
-    <tableColumn id="55" xr3:uid="{5AD0F486-D548-3843-91B9-6B507ACAC7D3}" name="O2_uM" dataDxfId="130"/>
-    <tableColumn id="56" xr3:uid="{D16A6F90-6BE5-CF47-9CAE-2BB8F897827F}" name="O2_was_measured" dataDxfId="129"/>
-    <tableColumn id="57" xr3:uid="{C1CF2876-E6AF-4F46-897E-353EF27F00C7}" name="O2_LQ_uM" dataDxfId="128"/>
-    <tableColumn id="58" xr3:uid="{72E770F6-55BE-BB42-8923-136C8E50EF4F}" name="Ni_total_uM" dataDxfId="127"/>
-    <tableColumn id="59" xr3:uid="{063EE5E6-2BA8-DF4E-81BA-AE14A5CD0651}" name="Ni_total_was_measured" dataDxfId="126"/>
-    <tableColumn id="60" xr3:uid="{0DA98FE4-7CA8-CF43-BF64-BCC0D38D7D56}" name="Ni_total_LQ_uM" dataDxfId="125"/>
-    <tableColumn id="61" xr3:uid="{6FB6D3BB-EF2F-5043-A867-106C0F0AAF16}" name="As_total_uM" dataDxfId="124"/>
-    <tableColumn id="62" xr3:uid="{42B58C33-4AE1-B345-803D-98FA730A797B}" name="As_total_was_measured" dataDxfId="123"/>
-    <tableColumn id="63" xr3:uid="{6DB07D75-B115-EB48-B262-8978D80B2E43}" name="As_total_LQ_uM" dataDxfId="122"/>
-    <tableColumn id="64" xr3:uid="{3B9E062B-A8F7-064E-B3FA-61DAAEF3F6BA}" name="Se_total_uM" dataDxfId="121"/>
-    <tableColumn id="65" xr3:uid="{B8D0C39B-BC3B-304A-9B06-2BE89475863E}" name="Se_total_was_measured" dataDxfId="120"/>
-    <tableColumn id="66" xr3:uid="{90C8BAC6-2275-A341-83AD-9356806448D7}" name="Se_total_LQ_uM" dataDxfId="119"/>
-    <tableColumn id="67" xr3:uid="{28173DA1-F4BD-0844-BD2E-03576B085C8A}" name="Cu_total_uM" dataDxfId="118"/>
-    <tableColumn id="68" xr3:uid="{F402FF17-786A-214E-800C-9DEA88201490}" name="Cu_total_was_measured" dataDxfId="117"/>
-    <tableColumn id="69" xr3:uid="{450ED86F-4A75-B546-BAA5-1DCC4C3C3060}" name="Cu_total_LQ_uM" dataDxfId="116"/>
-    <tableColumn id="70" xr3:uid="{E523F0AC-7939-0E46-92A1-20FD2901D93C}" name="Cd_total_uM" dataDxfId="115"/>
-    <tableColumn id="71" xr3:uid="{7BB457BC-CF08-5C43-BFBE-5A305EF83CD1}" name="Cd_total_was_measured" dataDxfId="114"/>
-    <tableColumn id="72" xr3:uid="{7A791CD6-88F9-0347-91CC-B134B512BDF2}" name="Cd_total_LQ_uM" dataDxfId="113"/>
-    <tableColumn id="73" xr3:uid="{5574D1C2-0A32-3245-9DFA-D55334557E03}" name="Zn_total_uM" dataDxfId="112"/>
-    <tableColumn id="74" xr3:uid="{BA84DB60-B1C5-3F41-AF96-76F15F131048}" name="Zn_total_was_measured" dataDxfId="111"/>
-    <tableColumn id="75" xr3:uid="{79263ADC-9F46-6D4D-8E04-B36C56EB41E3}" name="Zn_total_LQ_uM" dataDxfId="110"/>
-    <tableColumn id="76" xr3:uid="{375D75C1-E22A-BE45-8386-9DF7A54BBCE2}" name="Co_total_uM" dataDxfId="109"/>
-    <tableColumn id="77" xr3:uid="{2780050B-2EE0-674F-8294-7F2612C180D3}" name="Co_total_was_measured" dataDxfId="108"/>
-    <tableColumn id="78" xr3:uid="{054BD9B0-9107-ED4C-9510-40E50849C5FB}" name="Co_total_LQ_uM" dataDxfId="107"/>
-    <tableColumn id="79" xr3:uid="{90ABBD35-BE5E-1F4F-840B-D10DAFE80A2B}" name="Cr_total_uM" dataDxfId="106"/>
-    <tableColumn id="80" xr3:uid="{E0F98296-B68B-2F44-9A07-9F82F9CA77CA}" name="Cr_total_was_measured" dataDxfId="105"/>
-    <tableColumn id="81" xr3:uid="{CAB1AB51-F205-FE40-B09C-6CC78B925CCB}" name="Cr_total_LQ_uM" dataDxfId="104"/>
-    <tableColumn id="82" xr3:uid="{0E26EE61-A0B0-284E-AB27-33EE3048854C}" name="V_total_uM" dataDxfId="103"/>
-    <tableColumn id="83" xr3:uid="{C7949AE3-961E-F541-B3BA-4645476F9DA4}" name="V_total_was_measured" dataDxfId="102"/>
-    <tableColumn id="84" xr3:uid="{57D6ADA2-41C4-E444-963F-24D53FCC7E3D}" name="V_total_LQ_uM" dataDxfId="101"/>
-    <tableColumn id="85" xr3:uid="{A5E84705-52C2-1D46-BB27-BFBE6306F22E}" name="Mo_total_uM" dataDxfId="100"/>
-    <tableColumn id="86" xr3:uid="{5A8ACD22-64D1-484B-8C65-CF3C45663911}" name="Mo_total_was_measured" dataDxfId="99"/>
-    <tableColumn id="87" xr3:uid="{4BD9E2B7-F63C-C24C-A2C2-BDB938D2AB37}" name="Mo_total_LQ_uM" dataDxfId="98"/>
-    <tableColumn id="88" xr3:uid="{6848BCA0-E630-604B-971C-C1A36C220B9D}" name="formate_uM" dataDxfId="97"/>
-    <tableColumn id="89" xr3:uid="{A42C7244-48FA-D840-B498-CEF7FD2B5C66}" name="formate_was_measured" dataDxfId="96"/>
-    <tableColumn id="90" xr3:uid="{72651983-2662-DE41-ADC5-7C2B8F18EC1C}" name="formate_LQ_uM" dataDxfId="95"/>
-    <tableColumn id="91" xr3:uid="{7C2853CD-9959-8446-AEBC-EFC8E7369713}" name="acetate_uM" dataDxfId="94"/>
-    <tableColumn id="92" xr3:uid="{1C64C675-AC5E-884E-AE54-655DF946F107}" name="acetate_was_measured" dataDxfId="93"/>
-    <tableColumn id="93" xr3:uid="{11FEFAE3-B3F8-5441-92F8-451A42C09C78}" name="acetate_LQ_uM" dataDxfId="92"/>
-    <tableColumn id="94" xr3:uid="{955C16C1-CF9B-1944-AD85-3C0D48C59B87}" name="propionate_uM" dataDxfId="91"/>
-    <tableColumn id="95" xr3:uid="{CF43A611-66E2-E546-8A4E-2A0FFEB53249}" name="propionate_was_measured" dataDxfId="90"/>
-    <tableColumn id="96" xr3:uid="{BCC4F958-90B5-9A48-AB05-904A773B235B}" name="propionate_LQ_uM" dataDxfId="89"/>
-    <tableColumn id="97" xr3:uid="{607DCB7E-4B6B-7D48-98B6-5E222490E791}" name="lactate_uM" dataDxfId="88"/>
-    <tableColumn id="98" xr3:uid="{B44F2EFC-3007-1A49-BC18-B6EB6D44C65A}" name="lactate_was_measured" dataDxfId="87"/>
-    <tableColumn id="99" xr3:uid="{E7A461D5-9076-774A-A2B9-EF4822AD22C5}" name="lactate_LQ_uM" dataDxfId="86"/>
-    <tableColumn id="100" xr3:uid="{1967A804-DF98-A24F-BAA5-EE572F5AA758}" name="butyrate_uM" dataDxfId="85"/>
-    <tableColumn id="101" xr3:uid="{98EA7D52-1635-704C-B961-89124AC89B7A}" name="butyrate_was_measured" dataDxfId="84"/>
-    <tableColumn id="102" xr3:uid="{F42AAD5B-2384-2F43-B3FC-AEE529021C76}" name="butyrate_LQ_uM" dataDxfId="83"/>
-    <tableColumn id="103" xr3:uid="{698BBA0C-C586-CC42-A052-0EFA034C3619}" name="valerate_uM" dataDxfId="82"/>
-    <tableColumn id="104" xr3:uid="{B4A2EE1A-ED1D-A14F-8044-44B2C28C72AC}" name="valerate_was_measured" dataDxfId="81"/>
-    <tableColumn id="105" xr3:uid="{DFD772F4-5F56-BA4B-9E6B-F11366D6397D}" name="valerate_LQ_uM" dataDxfId="80"/>
-    <tableColumn id="106" xr3:uid="{A3B23340-09CA-0248-8EB3-1090D9218F42}" name="DIC_uM" dataDxfId="79"/>
-    <tableColumn id="107" xr3:uid="{D96EA075-C7C5-A641-9439-E63B2C367F78}" name="DIC_was_measured" dataDxfId="78"/>
-    <tableColumn id="108" xr3:uid="{68E2654B-92CA-E844-84F1-FD601B3DBB80}" name="DIC_unc_uM" dataDxfId="77"/>
-    <tableColumn id="109" xr3:uid="{1D2DF5D5-EA81-AC4E-B4EB-53BA4AAC8288}" name="DIC_LQ_uM" dataDxfId="76"/>
-    <tableColumn id="110" xr3:uid="{CB460439-9ABD-3047-A589-C5617D79D6B4}" name="DIC_d13C_permil_VPDB" dataDxfId="75"/>
-    <tableColumn id="112" xr3:uid="{CE9B7767-C017-DE4A-AB33-EFF8D9CBFC17}" name="DIC_d13C_unc_permil" dataDxfId="74"/>
-    <tableColumn id="113" xr3:uid="{FB2467BF-BA07-FF47-9A68-F8405DA92184}" name="alkalinity_ueq_L" dataDxfId="73"/>
-    <tableColumn id="114" xr3:uid="{9F2F9464-71DB-D24E-A6E3-BF8DC7DB0836}" name="alkalinity_was_measured" dataDxfId="72"/>
-    <tableColumn id="115" xr3:uid="{1385B247-C67B-9941-919B-7552FB975CF8}" name="H2O_d18O_permil_VSMOW" dataDxfId="71"/>
-    <tableColumn id="116" xr3:uid="{B4C0BA93-4D2A-DF4D-9386-B2835E8A4E88}" name="H2O_d18O_unc_permil" dataDxfId="70"/>
-    <tableColumn id="117" xr3:uid="{05F5AFF9-BD89-D84C-AC24-7DDC8241F942}" name="H2O_dD_permil_VSMOW" dataDxfId="69"/>
-    <tableColumn id="118" xr3:uid="{713A26B4-6D4B-5D47-98DF-149F69DE535E}" name="H2O_dD_unc_permil" dataDxfId="68"/>
-    <tableColumn id="123" xr3:uid="{394217D2-037C-9541-AC72-CF7D6FAF258D}" name="CO_uM" dataDxfId="67"/>
-    <tableColumn id="124" xr3:uid="{0252A4FB-4F58-FC42-8AB2-32128FB1B6C5}" name="CO_was_measured" dataDxfId="66"/>
-    <tableColumn id="125" xr3:uid="{02FE847A-1C12-C54D-9692-856375431D4A}" name="CO_unc_uM" dataDxfId="65"/>
-    <tableColumn id="126" xr3:uid="{E81C3B46-C776-2147-8B51-5EA2D071ECA4}" name="CO_LQ_uM" dataDxfId="64"/>
-    <tableColumn id="127" xr3:uid="{70E70B01-55BA-E145-9409-1A909B943CEE}" name="H2_uM" dataDxfId="63"/>
-    <tableColumn id="128" xr3:uid="{02604155-A51C-B94F-A371-F67F7892F2E8}" name="H2_was_measured" dataDxfId="62"/>
-    <tableColumn id="129" xr3:uid="{F803235E-36AF-2C46-A02E-F5512CA7110B}" name="H2_unc_uM" dataDxfId="61"/>
-    <tableColumn id="130" xr3:uid="{E216C148-9E3B-EF45-8733-B1EFC7AE968B}" name="H2_LQ_uM" dataDxfId="60"/>
-    <tableColumn id="131" xr3:uid="{A64F19CE-C8B4-A349-A97E-8C4F7F898AFB}" name="CH4_uM" dataDxfId="59"/>
-    <tableColumn id="132" xr3:uid="{16EF7D37-1886-1E49-B641-492831922EDC}" name="CH4_was_measured" dataDxfId="58"/>
-    <tableColumn id="133" xr3:uid="{1B8F9678-700E-8D48-9BDC-CF2B3829EB55}" name="CH4_unc_uM" dataDxfId="57"/>
-    <tableColumn id="134" xr3:uid="{A2DAB224-F4D4-A340-8CAC-F8DF21E35777}" name="CH4_LQ_uM" dataDxfId="56"/>
-    <tableColumn id="135" xr3:uid="{5B0F0A62-4B79-A441-BEC9-B2663CAB4AB6}" name="C2H6_uM" dataDxfId="55"/>
-    <tableColumn id="136" xr3:uid="{4B938156-CE1D-1747-A9B3-2F310CC4F2F6}" name="C2H6_was_measured" dataDxfId="54"/>
-    <tableColumn id="137" xr3:uid="{F613E583-ECC5-DE4D-886B-AF7186EBEFEA}" name="C2H6_unc_uM" dataDxfId="53"/>
-    <tableColumn id="138" xr3:uid="{6E77E2E0-34DC-254D-9C69-CD29D5CF3BC6}" name="C2H6_LQ_uM" dataDxfId="52"/>
-    <tableColumn id="139" xr3:uid="{73B58BDF-CFA3-A243-8E17-01BCC943EAED}" name="C3H8_uM" dataDxfId="51"/>
-    <tableColumn id="140" xr3:uid="{4595B0FF-F034-B14B-921B-62E1EB81AD9F}" name="C3H8_was_measured" dataDxfId="50"/>
-    <tableColumn id="141" xr3:uid="{AB285C5B-188E-054B-B967-106D380FDEF6}" name="C3H8_unc_uM" dataDxfId="49"/>
-    <tableColumn id="142" xr3:uid="{79D3AED7-429A-5040-B19F-E130E1BFBADD}" name="C3H8_LQ_uM" dataDxfId="48"/>
-    <tableColumn id="143" xr3:uid="{0B1A4469-E090-4644-B1A9-4ABA1286CE27}" name="i_C4H10_uM" dataDxfId="47"/>
-    <tableColumn id="144" xr3:uid="{AA8F5ABD-7D75-D941-8D8F-587155F28E9E}" name="i_C4H10_was_measured" dataDxfId="46"/>
-    <tableColumn id="145" xr3:uid="{DA214AC7-2DD1-674D-A08F-F49D96B2D7B7}" name="i_C4H10_unc_uM" dataDxfId="45"/>
-    <tableColumn id="146" xr3:uid="{7375F938-224F-2C4F-A6D7-2F3194B0BEA9}" name="i_C4H10_LQ_uM" dataDxfId="44"/>
-    <tableColumn id="147" xr3:uid="{D582ADE0-52F3-594C-92AB-D5C9421078A6}" name="n_C4H10_uM" dataDxfId="43"/>
-    <tableColumn id="148" xr3:uid="{D9D7DB74-D9D7-914D-8BF8-AD477FE68E85}" name="n_C4H10_was_measured" dataDxfId="42"/>
-    <tableColumn id="149" xr3:uid="{2DDB8A23-1941-9E49-9C09-F862FC53831F}" name="n_C4H10_unc_uM" dataDxfId="41"/>
-    <tableColumn id="150" xr3:uid="{84790C19-9741-594D-9BDD-AB06ACB171D4}" name="n_C4H10_LQ_uM" dataDxfId="40"/>
-    <tableColumn id="151" xr3:uid="{1AA47EEE-F144-9345-9DE6-3ED4071258C7}" name="i_C5H12_uM" dataDxfId="39"/>
-    <tableColumn id="152" xr3:uid="{84819688-CACD-1E49-9B4C-F87821314633}" name="i_C5H12_was_measured" dataDxfId="38"/>
-    <tableColumn id="153" xr3:uid="{758BF6F8-058E-9F4D-8159-79698B2543BE}" name="i_C5H12_unc_uM" dataDxfId="37"/>
-    <tableColumn id="154" xr3:uid="{D20613A5-314A-BF4F-BC08-B68BA28C4745}" name="i_C5H12_LQ_uM" dataDxfId="36"/>
-    <tableColumn id="155" xr3:uid="{63DF478E-BCEF-5E47-8B85-DE6CB68A3881}" name="n_C5H12_uM" dataDxfId="35"/>
-    <tableColumn id="156" xr3:uid="{33B84D12-3AC6-9941-86C4-D09BDF8A065F}" name="n_C5H12_was_measured" dataDxfId="34"/>
-    <tableColumn id="157" xr3:uid="{9EE65B61-5C74-3B49-A4DF-0F0DD7EAFA0B}" name="n_C5H12_unc_uM" dataDxfId="33"/>
-    <tableColumn id="158" xr3:uid="{A2E4BB76-1001-1A4C-912C-0463BED9C4EE}" name="n_C5H12_LQ_uM" dataDxfId="32"/>
-    <tableColumn id="159" xr3:uid="{803A16A1-C385-994E-88CF-AE8016FA4C11}" name="C6H14_uM" dataDxfId="31"/>
-    <tableColumn id="160" xr3:uid="{95E28F64-B963-CC47-9F1B-F89D6D620D9B}" name="C6H14_was_measured" dataDxfId="30"/>
-    <tableColumn id="161" xr3:uid="{65B62C8E-2CE4-7C48-812F-9BCCDC62C155}" name="C6H14_unc_uM" dataDxfId="29"/>
-    <tableColumn id="162" xr3:uid="{5DC80E3B-AF76-8D4E-9FC6-CC44F22FDE70}" name="C6H12_LQ_uM" dataDxfId="28"/>
-    <tableColumn id="163" xr3:uid="{94B26A97-3FC7-4243-A0EF-614C891F43C3}" name="H2_dD_permil_VSMOW" dataDxfId="27"/>
-    <tableColumn id="164" xr3:uid="{99B98F77-5335-8A43-9F40-89B42D4D207A}" name="H2_dD_unc_permil" dataDxfId="26"/>
-    <tableColumn id="165" xr3:uid="{0EBD0053-DB4F-794F-BBD5-D9F5EB028658}" name="CH4_d13C_permil_VPDB_LBNL" dataDxfId="25"/>
-    <tableColumn id="166" xr3:uid="{E9B44186-0496-2C42-9657-9C540E51F7D8}" name="CH4_d13C_unc_permil_LBNL" dataDxfId="24"/>
-    <tableColumn id="167" xr3:uid="{DF9396ED-54CD-1640-BB83-7425AA8FB1C3}" name="CH4_d13C_permil_VPDB_CUB" dataDxfId="23"/>
-    <tableColumn id="168" xr3:uid="{934E179F-D945-5248-9AA8-F27DA53FA4EB}" name="CH4_d13C_unc_permil_CUB" dataDxfId="22"/>
-    <tableColumn id="169" xr3:uid="{81B76F2F-2CDC-B147-80A4-6D498FA6D549}" name="CH4_d13C_permil_VPDB_MIT" dataDxfId="21"/>
-    <tableColumn id="170" xr3:uid="{0A5BCA68-E159-7047-81A9-3178CA07347F}" name="CH4_d13C_unc_permil_MIT" dataDxfId="20"/>
-    <tableColumn id="171" xr3:uid="{52FE9FDA-CDF8-B849-8484-AA3E1D1BDF2F}" name="CH4_d13C_permil_VPDB_UCLA" dataDxfId="19"/>
-    <tableColumn id="172" xr3:uid="{188F87DC-C622-B746-A0DD-95F247E01320}" name="CH4_d13C_unc_permil_UCLA" dataDxfId="18"/>
+  <tableColumns count="225">
+    <tableColumn id="1" xr3:uid="{BFF457DA-4FAB-D144-8C31-CB514862FC48}" name="sampling_site" dataDxfId="224"/>
+    <tableColumn id="2" xr3:uid="{4D369E96-9F6D-5D42-97C0-01D4733C4360}" name="year_sampled" dataDxfId="223"/>
+    <tableColumn id="197" xr3:uid="{2184662C-58E1-CF46-8E88-488B84A33E9E}" name="month_sampled" dataDxfId="222"/>
+    <tableColumn id="202" xr3:uid="{6AB3C9C2-7261-E248-84CE-01C4BB3AA059}" name="day_sampled" dataDxfId="221"/>
+    <tableColumn id="3" xr3:uid="{99B7B287-641A-9C4E-A16D-8493DFD5D11A}" name="depth_fluid_intake_mbct" dataDxfId="220"/>
+    <tableColumn id="204" xr3:uid="{CB73FC66-237D-D942-9585-B911630C1741}" name="notes" dataDxfId="219"/>
+    <tableColumn id="198" xr3:uid="{ED8E9DA0-D8CC-2347-9B03-5C4B727F1F8E}" name="sampling_method" dataDxfId="218"/>
+    <tableColumn id="191" xr3:uid="{81149577-5341-8743-9700-35E42F2F28BC}" name="upper_packer_inflated" dataDxfId="217"/>
+    <tableColumn id="193" xr3:uid="{2165463B-4BC6-B742-8EE0-30E11BFDB984}" name="upper_packer_depth_mbct" dataDxfId="216"/>
+    <tableColumn id="192" xr3:uid="{4D76310D-44CA-5642-A036-B307A14DC691}" name="lower_packer_inflated" dataDxfId="215"/>
+    <tableColumn id="122" xr3:uid="{A9EB01AA-DD03-C748-A8E4-105B4565D017}" name="lower_packer_depth_mbct" dataDxfId="214"/>
+    <tableColumn id="195" xr3:uid="{A40D7A19-51C2-9B47-8A72-9D23679BC709}" name="well_depth_mbgl" dataDxfId="213"/>
+    <tableColumn id="194" xr3:uid="{38B5F7E8-B0B6-164A-9157-EE6C5773A54E}" name="casing_extent_mbct" dataDxfId="212"/>
+    <tableColumn id="203" xr3:uid="{A6E0EFF9-8B45-EA49-8E31-79AC5CC02F62}" name="casing_height_magl" dataDxfId="211"/>
+    <tableColumn id="196" xr3:uid="{6996A526-1193-AF43-A0E8-5AA6E9D5C7DA}" name="screened_interval_mbct" dataDxfId="210"/>
+    <tableColumn id="4" xr3:uid="{662943D7-6392-FE4F-8AB5-DF3DC5EA5253}" name="depth_to_water_mbct" dataDxfId="209"/>
+    <tableColumn id="199" xr3:uid="{4C8D1828-0F5F-554D-AA7F-372CCC657FBE}" name="first_publication_author" dataDxfId="208"/>
+    <tableColumn id="200" xr3:uid="{0FA60879-BE06-A841-8857-0590F005859F}" name="first_publication_year" dataDxfId="207"/>
+    <tableColumn id="201" xr3:uid="{A8B65462-3258-AE44-858A-E255551307CB}" name="first_publication_title" dataDxfId="206"/>
+    <tableColumn id="5" xr3:uid="{BE2716D5-7D32-1642-A2C9-5E25BB10DB1D}" name="water_type" dataDxfId="205"/>
+    <tableColumn id="6" xr3:uid="{2E331599-AAC7-A04E-B39F-436544E07208}" name="UTM_Easting_40N" dataDxfId="204"/>
+    <tableColumn id="7" xr3:uid="{47C8D443-718B-4840-988B-FC1B90F9A26C}" name="UTM_Northing_40N" dataDxfId="203"/>
+    <tableColumn id="223" xr3:uid="{4012E4E3-FD5A-B74F-8AE8-3FF216C1240D}" name="lat_deg_N_WGS84" dataDxfId="202"/>
+    <tableColumn id="111" xr3:uid="{D63A2B99-E083-2C47-926B-6EE804942A9F}" name="long_deg_E_WGS84" dataDxfId="201"/>
+    <tableColumn id="8" xr3:uid="{F7E1D22A-BC9A-CC44-9CF3-55157A7A0842}" name="elevation_masl" dataDxfId="200"/>
+    <tableColumn id="9" xr3:uid="{974FFE02-717D-404D-B5F1-08DEFF1841D1}" name="pH" dataDxfId="199"/>
+    <tableColumn id="10" xr3:uid="{8B7B1567-CDC4-1F41-89E0-0D86D8CAB230}" name="temp_C" dataDxfId="198"/>
+    <tableColumn id="11" xr3:uid="{1AE6B306-EEF7-5047-877C-7B2094B1F54A}" name="conductivity_uS_cm" dataDxfId="197"/>
+    <tableColumn id="12" xr3:uid="{A131457C-E8DD-3741-A1DF-FF6BA30C92AC}" name="Eh_mV" dataDxfId="196"/>
+    <tableColumn id="13" xr3:uid="{91F4DFC3-3BC4-F149-BF12-4D26BBB69840}" name="Na_total_uM" dataDxfId="195"/>
+    <tableColumn id="14" xr3:uid="{AB29206E-3E5C-854B-BD43-E19799D63F07}" name="Na_total_was_measured" dataDxfId="194"/>
+    <tableColumn id="15" xr3:uid="{940B7E06-86C3-9E40-93F2-2E57CFAF0526}" name="Na_total_LQ_uM" dataDxfId="193"/>
+    <tableColumn id="16" xr3:uid="{F1D07B91-2952-7642-AA4B-55BC1D2E40A3}" name="Ca_total_uM" dataDxfId="192"/>
+    <tableColumn id="17" xr3:uid="{6D4AB350-C11B-1D4D-A054-E46716332D19}" name="Ca_total_was_measured" dataDxfId="191"/>
+    <tableColumn id="18" xr3:uid="{F02EAD41-6DE8-154C-B103-57F0F807C3C3}" name="Ca_total_LQ_uM" dataDxfId="190"/>
+    <tableColumn id="19" xr3:uid="{09B3C774-6E76-4343-9ACF-C772568AC55C}" name="Mg_total_uM" dataDxfId="189"/>
+    <tableColumn id="20" xr3:uid="{90D4F63F-0CDC-5C46-BCD9-8A34377251FD}" name="Mg_total_was_measured" dataDxfId="188"/>
+    <tableColumn id="21" xr3:uid="{A8F5806F-819E-5F49-AA26-9F3239779B38}" name="Mg_total_LQ_uM" dataDxfId="187"/>
+    <tableColumn id="222" xr3:uid="{511C6AF6-1B0C-DF43-B88E-8E190E06B5FF}" name="K_total_uM" dataDxfId="186"/>
+    <tableColumn id="221" xr3:uid="{48475239-412B-1847-8724-4F9EDC40CA96}" name="K_total_was_measured" dataDxfId="185"/>
+    <tableColumn id="220" xr3:uid="{605EA04D-8759-A24D-AC07-D3BD15567F48}" name="K_total_LQ_uM" dataDxfId="184"/>
+    <tableColumn id="219" xr3:uid="{CC43D0CD-A0BC-0246-9754-3C2B82F1AA91}" name="Li_total_uM" dataDxfId="183"/>
+    <tableColumn id="218" xr3:uid="{C99F2235-973D-5849-9144-5CAE5A9B25C0}" name="Li_total_was_measured" dataDxfId="182"/>
+    <tableColumn id="217" xr3:uid="{AEF5640A-B470-5548-9AE3-919980A26B6D}" name="Li_total_LQ_uM" dataDxfId="181"/>
+    <tableColumn id="216" xr3:uid="{9264F891-4872-C74C-885B-7E25DFF1198D}" name="Ba_total_uM" dataDxfId="180"/>
+    <tableColumn id="215" xr3:uid="{961027B5-4998-A04E-B284-66AF3D6BCBB8}" name="Ba_total_was_measured" dataDxfId="179"/>
+    <tableColumn id="214" xr3:uid="{60D3366C-B2C7-204E-AA59-E316D7DD687B}" name="Ba_total_LQ_uM" dataDxfId="178"/>
+    <tableColumn id="213" xr3:uid="{A27E3BAE-492D-1342-9D7E-81F693634F31}" name="B_total_uM" dataDxfId="177"/>
+    <tableColumn id="212" xr3:uid="{F04851F5-E507-A345-8A84-E15CB8286805}" name="B_total_was_measured" dataDxfId="176"/>
+    <tableColumn id="211" xr3:uid="{45E86A89-999B-4040-B206-688FD63E63AF}" name="B_total_LQ_uM" dataDxfId="175"/>
+    <tableColumn id="210" xr3:uid="{FFE512AF-6524-354A-A5EB-7E85723791EF}" name="Sr_total_uM" dataDxfId="174"/>
+    <tableColumn id="209" xr3:uid="{CCCCD549-40F0-A340-B84C-B1C9906FF2DF}" name="Sr_total_was_measured" dataDxfId="173"/>
+    <tableColumn id="208" xr3:uid="{EC1068D6-BF98-5942-B44D-959D3D0CAF65}" name="Sr_total_LQ_uM" dataDxfId="172"/>
+    <tableColumn id="207" xr3:uid="{FDF2B454-94C3-D54C-9CB8-0A79796C4504}" name="Mn_total_uM" dataDxfId="171"/>
+    <tableColumn id="206" xr3:uid="{6B5D2E5D-E51B-5641-AB07-0A9BD4334F4E}" name="Mn_total_was_measured" dataDxfId="170"/>
+    <tableColumn id="205" xr3:uid="{8B0FCE6A-4301-DF4F-9B74-6834676E7F47}" name="Mn_total_LQ_uM" dataDxfId="169"/>
+    <tableColumn id="22" xr3:uid="{87688FA7-E338-8D4D-B458-AE89FABE0EB0}" name="SiO2_uM" dataDxfId="168"/>
+    <tableColumn id="23" xr3:uid="{600DC6F5-049C-F644-870A-21F7554DFC2D}" name="SiO2_was_measured" dataDxfId="167"/>
+    <tableColumn id="24" xr3:uid="{8A3894DA-0BDB-294D-9ECC-F9E29F72FB2C}" name="SiO2_LQ_uM" dataDxfId="166"/>
+    <tableColumn id="121" xr3:uid="{9811F981-6538-E04C-B696-12204BA74A40}" name="Si_total_uM" dataDxfId="165"/>
+    <tableColumn id="120" xr3:uid="{A3EB8059-1AD0-FC47-9644-056A8DF67485}" name="Si_total_was_measured" dataDxfId="164"/>
+    <tableColumn id="119" xr3:uid="{C278EB56-D293-7042-9178-03BA1DAED1B0}" name="Si_total_LQ_uM" dataDxfId="163"/>
+    <tableColumn id="25" xr3:uid="{15D3CDED-2D00-3345-A629-0453430BC221}" name="Chloride_uM" dataDxfId="162"/>
+    <tableColumn id="26" xr3:uid="{79F6773F-AF1E-EF4F-ABC1-439004D67550}" name="Chloride_was_measured" dataDxfId="161"/>
+    <tableColumn id="27" xr3:uid="{D6D2E3A8-4ABB-B04E-8DD6-81882A868407}" name="Chloride_LQ_uM" dataDxfId="160"/>
+    <tableColumn id="28" xr3:uid="{B6885C42-9941-EE43-90DA-34CFDB01FB13}" name="Bromide_uM" dataDxfId="159"/>
+    <tableColumn id="29" xr3:uid="{C0014D59-D121-5D4C-BB28-80717363BF5E}" name="Bromide_was_measured" dataDxfId="158"/>
+    <tableColumn id="30" xr3:uid="{FC076F39-F5DD-064F-8F34-2D583674C4F7}" name="Bromide_LQ_uM" dataDxfId="157"/>
+    <tableColumn id="31" xr3:uid="{4ABD736D-7B0B-9949-9C32-8ECAB5C8E875}" name="Fluoride_uM" dataDxfId="156"/>
+    <tableColumn id="32" xr3:uid="{DCA65C71-009F-B340-8F47-F690F5FA2A8F}" name="Fluoride_was_measured" dataDxfId="155"/>
+    <tableColumn id="33" xr3:uid="{636556AA-D1E6-5845-90A9-8CDB8CC9CE98}" name="Fluoride_LQ_uM" dataDxfId="154"/>
+    <tableColumn id="34" xr3:uid="{D49325CE-6059-B94A-AFBE-54B552E5FDDB}" name="Al_total_uM" dataDxfId="153"/>
+    <tableColumn id="35" xr3:uid="{71732A0E-042D-4C48-8098-B6CCB8CA583E}" name="Al_total_was_measured" dataDxfId="152"/>
+    <tableColumn id="36" xr3:uid="{44D8CF15-EEC6-DB4A-B479-D5D2582DA001}" name="Al_total_LQ_uM" dataDxfId="151"/>
+    <tableColumn id="37" xr3:uid="{820D5B14-810B-BD4D-8148-D595260B885E}" name="Fe_II_uM" dataDxfId="150"/>
+    <tableColumn id="38" xr3:uid="{C2171954-1982-844E-B36F-17C497836502}" name="Fe_II_was_measured" dataDxfId="149"/>
+    <tableColumn id="39" xr3:uid="{5B9DE32D-B978-3548-81F9-982AB2553F39}" name="Fe_II_LQ_uM" dataDxfId="148"/>
+    <tableColumn id="40" xr3:uid="{33D70BFC-29CA-0B44-8292-FC8F9E0CF4C4}" name="Fe_total_uM" dataDxfId="147"/>
+    <tableColumn id="41" xr3:uid="{6B90E701-CFDF-C547-BB78-C78EDF029D20}" name="Fe_total_was_measured" dataDxfId="146"/>
+    <tableColumn id="42" xr3:uid="{15E4DD79-DBFF-4645-A2FF-1DE4BBCD141F}" name="Fe_total_LQ_uM" dataDxfId="145"/>
+    <tableColumn id="43" xr3:uid="{CB5F556F-C6F6-C446-9782-3681C0BD6229}" name="Ammonium_uM" dataDxfId="144"/>
+    <tableColumn id="44" xr3:uid="{06CD7B74-27A6-8747-9EB1-FA54FD3FBD0F}" name="Ammonium_was_measured" dataDxfId="143"/>
+    <tableColumn id="45" xr3:uid="{ADD7B47F-C6EF-5246-9733-BD395CFD8198}" name="Ammonium_LQ_uM" dataDxfId="142"/>
+    <tableColumn id="46" xr3:uid="{1DC76DA0-6047-404D-9B5A-B3BB4C0F44E6}" name="Sulfate_uM" dataDxfId="141"/>
+    <tableColumn id="47" xr3:uid="{4FA93857-2C2B-AE42-92B2-D3BD3658CC28}" name="Sulfate_was_measured" dataDxfId="140"/>
+    <tableColumn id="48" xr3:uid="{93539CD8-BCFE-2843-AA4B-4505E26A6814}" name="Sulfate_LQ_uM" dataDxfId="139"/>
+    <tableColumn id="49" xr3:uid="{BC16A54B-8400-D34D-9BCE-455FBA15FC1A}" name="Nitrate_uM" dataDxfId="138"/>
+    <tableColumn id="50" xr3:uid="{52E451C9-934F-5047-B12E-35C7341456AF}" name="Nitrate_was_measured" dataDxfId="137"/>
+    <tableColumn id="51" xr3:uid="{92E6F5E9-027F-E144-A7C9-A0050F58150C}" name="Nitrate_LQ_uM" dataDxfId="136"/>
+    <tableColumn id="52" xr3:uid="{4DF5F4F8-1854-3144-BEE4-A2DA9FCEFDCF}" name="Nitrite_uM" dataDxfId="135"/>
+    <tableColumn id="53" xr3:uid="{2B422929-9238-2F4E-A3EB-4F5B62AA09F5}" name="Nitrite_was_measured" dataDxfId="134"/>
+    <tableColumn id="54" xr3:uid="{7E46B788-1AC4-BE4E-A5C9-F23BAB0644D7}" name="Nitrite_LQ_uM" dataDxfId="133"/>
+    <tableColumn id="55" xr3:uid="{5AD0F486-D548-3843-91B9-6B507ACAC7D3}" name="O2_uM" dataDxfId="132"/>
+    <tableColumn id="56" xr3:uid="{D16A6F90-6BE5-CF47-9CAE-2BB8F897827F}" name="O2_was_measured" dataDxfId="131"/>
+    <tableColumn id="57" xr3:uid="{C1CF2876-E6AF-4F46-897E-353EF27F00C7}" name="O2_LQ_uM" dataDxfId="130"/>
+    <tableColumn id="58" xr3:uid="{72E770F6-55BE-BB42-8923-136C8E50EF4F}" name="Ni_total_uM" dataDxfId="129"/>
+    <tableColumn id="59" xr3:uid="{063EE5E6-2BA8-DF4E-81BA-AE14A5CD0651}" name="Ni_total_was_measured" dataDxfId="128"/>
+    <tableColumn id="60" xr3:uid="{0DA98FE4-7CA8-CF43-BF64-BCC0D38D7D56}" name="Ni_total_LQ_uM" dataDxfId="127"/>
+    <tableColumn id="61" xr3:uid="{6FB6D3BB-EF2F-5043-A867-106C0F0AAF16}" name="As_total_uM" dataDxfId="126"/>
+    <tableColumn id="62" xr3:uid="{42B58C33-4AE1-B345-803D-98FA730A797B}" name="As_total_was_measured" dataDxfId="125"/>
+    <tableColumn id="63" xr3:uid="{6DB07D75-B115-EB48-B262-8978D80B2E43}" name="As_total_LQ_uM" dataDxfId="124"/>
+    <tableColumn id="64" xr3:uid="{3B9E062B-A8F7-064E-B3FA-61DAAEF3F6BA}" name="Se_total_uM" dataDxfId="123"/>
+    <tableColumn id="65" xr3:uid="{B8D0C39B-BC3B-304A-9B06-2BE89475863E}" name="Se_total_was_measured" dataDxfId="122"/>
+    <tableColumn id="66" xr3:uid="{90C8BAC6-2275-A341-83AD-9356806448D7}" name="Se_total_LQ_uM" dataDxfId="121"/>
+    <tableColumn id="67" xr3:uid="{28173DA1-F4BD-0844-BD2E-03576B085C8A}" name="Cu_total_uM" dataDxfId="120"/>
+    <tableColumn id="68" xr3:uid="{F402FF17-786A-214E-800C-9DEA88201490}" name="Cu_total_was_measured" dataDxfId="119"/>
+    <tableColumn id="69" xr3:uid="{450ED86F-4A75-B546-BAA5-1DCC4C3C3060}" name="Cu_total_LQ_uM" dataDxfId="118"/>
+    <tableColumn id="70" xr3:uid="{E523F0AC-7939-0E46-92A1-20FD2901D93C}" name="Cd_total_uM" dataDxfId="117"/>
+    <tableColumn id="71" xr3:uid="{7BB457BC-CF08-5C43-BFBE-5A305EF83CD1}" name="Cd_total_was_measured" dataDxfId="116"/>
+    <tableColumn id="72" xr3:uid="{7A791CD6-88F9-0347-91CC-B134B512BDF2}" name="Cd_total_LQ_uM" dataDxfId="115"/>
+    <tableColumn id="73" xr3:uid="{5574D1C2-0A32-3245-9DFA-D55334557E03}" name="Zn_total_uM" dataDxfId="114"/>
+    <tableColumn id="74" xr3:uid="{BA84DB60-B1C5-3F41-AF96-76F15F131048}" name="Zn_total_was_measured" dataDxfId="113"/>
+    <tableColumn id="75" xr3:uid="{79263ADC-9F46-6D4D-8E04-B36C56EB41E3}" name="Zn_total_LQ_uM" dataDxfId="112"/>
+    <tableColumn id="76" xr3:uid="{375D75C1-E22A-BE45-8386-9DF7A54BBCE2}" name="Co_total_uM" dataDxfId="111"/>
+    <tableColumn id="77" xr3:uid="{2780050B-2EE0-674F-8294-7F2612C180D3}" name="Co_total_was_measured" dataDxfId="110"/>
+    <tableColumn id="78" xr3:uid="{054BD9B0-9107-ED4C-9510-40E50849C5FB}" name="Co_total_LQ_uM" dataDxfId="109"/>
+    <tableColumn id="79" xr3:uid="{90ABBD35-BE5E-1F4F-840B-D10DAFE80A2B}" name="Cr_total_uM" dataDxfId="108"/>
+    <tableColumn id="80" xr3:uid="{E0F98296-B68B-2F44-9A07-9F82F9CA77CA}" name="Cr_total_was_measured" dataDxfId="107"/>
+    <tableColumn id="81" xr3:uid="{CAB1AB51-F205-FE40-B09C-6CC78B925CCB}" name="Cr_total_LQ_uM" dataDxfId="106"/>
+    <tableColumn id="82" xr3:uid="{0E26EE61-A0B0-284E-AB27-33EE3048854C}" name="V_total_uM" dataDxfId="105"/>
+    <tableColumn id="83" xr3:uid="{C7949AE3-961E-F541-B3BA-4645476F9DA4}" name="V_total_was_measured" dataDxfId="104"/>
+    <tableColumn id="84" xr3:uid="{57D6ADA2-41C4-E444-963F-24D53FCC7E3D}" name="V_total_LQ_uM" dataDxfId="103"/>
+    <tableColumn id="85" xr3:uid="{A5E84705-52C2-1D46-BB27-BFBE6306F22E}" name="Mo_total_uM" dataDxfId="102"/>
+    <tableColumn id="86" xr3:uid="{5A8ACD22-64D1-484B-8C65-CF3C45663911}" name="Mo_total_was_measured" dataDxfId="101"/>
+    <tableColumn id="87" xr3:uid="{4BD9E2B7-F63C-C24C-A2C2-BDB938D2AB37}" name="Mo_total_LQ_uM" dataDxfId="100"/>
+    <tableColumn id="88" xr3:uid="{6848BCA0-E630-604B-971C-C1A36C220B9D}" name="formate_uM" dataDxfId="99"/>
+    <tableColumn id="89" xr3:uid="{A42C7244-48FA-D840-B498-CEF7FD2B5C66}" name="formate_was_measured" dataDxfId="98"/>
+    <tableColumn id="90" xr3:uid="{72651983-2662-DE41-ADC5-7C2B8F18EC1C}" name="formate_LQ_uM" dataDxfId="97"/>
+    <tableColumn id="91" xr3:uid="{7C2853CD-9959-8446-AEBC-EFC8E7369713}" name="acetate_uM" dataDxfId="96"/>
+    <tableColumn id="92" xr3:uid="{1C64C675-AC5E-884E-AE54-655DF946F107}" name="acetate_was_measured" dataDxfId="95"/>
+    <tableColumn id="93" xr3:uid="{11FEFAE3-B3F8-5441-92F8-451A42C09C78}" name="acetate_LQ_uM" dataDxfId="94"/>
+    <tableColumn id="94" xr3:uid="{955C16C1-CF9B-1944-AD85-3C0D48C59B87}" name="propionate_uM" dataDxfId="93"/>
+    <tableColumn id="95" xr3:uid="{CF43A611-66E2-E546-8A4E-2A0FFEB53249}" name="propionate_was_measured" dataDxfId="92"/>
+    <tableColumn id="96" xr3:uid="{BCC4F958-90B5-9A48-AB05-904A773B235B}" name="propionate_LQ_uM" dataDxfId="91"/>
+    <tableColumn id="97" xr3:uid="{607DCB7E-4B6B-7D48-98B6-5E222490E791}" name="lactate_uM" dataDxfId="90"/>
+    <tableColumn id="98" xr3:uid="{B44F2EFC-3007-1A49-BC18-B6EB6D44C65A}" name="lactate_was_measured" dataDxfId="89"/>
+    <tableColumn id="99" xr3:uid="{E7A461D5-9076-774A-A2B9-EF4822AD22C5}" name="lactate_LQ_uM" dataDxfId="88"/>
+    <tableColumn id="100" xr3:uid="{1967A804-DF98-A24F-BAA5-EE572F5AA758}" name="butyrate_uM" dataDxfId="87"/>
+    <tableColumn id="101" xr3:uid="{98EA7D52-1635-704C-B961-89124AC89B7A}" name="butyrate_was_measured" dataDxfId="86"/>
+    <tableColumn id="102" xr3:uid="{F42AAD5B-2384-2F43-B3FC-AEE529021C76}" name="butyrate_LQ_uM" dataDxfId="85"/>
+    <tableColumn id="103" xr3:uid="{698BBA0C-C586-CC42-A052-0EFA034C3619}" name="valerate_uM" dataDxfId="84"/>
+    <tableColumn id="104" xr3:uid="{B4A2EE1A-ED1D-A14F-8044-44B2C28C72AC}" name="valerate_was_measured" dataDxfId="83"/>
+    <tableColumn id="105" xr3:uid="{DFD772F4-5F56-BA4B-9E6B-F11366D6397D}" name="valerate_LQ_uM" dataDxfId="82"/>
+    <tableColumn id="106" xr3:uid="{A3B23340-09CA-0248-8EB3-1090D9218F42}" name="DIC_uM" dataDxfId="81"/>
+    <tableColumn id="107" xr3:uid="{D96EA075-C7C5-A641-9439-E63B2C367F78}" name="DIC_was_measured" dataDxfId="80"/>
+    <tableColumn id="108" xr3:uid="{68E2654B-92CA-E844-84F1-FD601B3DBB80}" name="DIC_unc_uM" dataDxfId="79"/>
+    <tableColumn id="109" xr3:uid="{1D2DF5D5-EA81-AC4E-B4EB-53BA4AAC8288}" name="DIC_LQ_uM" dataDxfId="78"/>
+    <tableColumn id="110" xr3:uid="{CB460439-9ABD-3047-A589-C5617D79D6B4}" name="DIC_d13C_permil_VPDB" dataDxfId="77"/>
+    <tableColumn id="112" xr3:uid="{CE9B7767-C017-DE4A-AB33-EFF8D9CBFC17}" name="DIC_d13C_unc_permil" dataDxfId="76"/>
+    <tableColumn id="113" xr3:uid="{FB2467BF-BA07-FF47-9A68-F8405DA92184}" name="alkalinity_ueq_L" dataDxfId="75"/>
+    <tableColumn id="114" xr3:uid="{9F2F9464-71DB-D24E-A6E3-BF8DC7DB0836}" name="alkalinity_was_measured" dataDxfId="74"/>
+    <tableColumn id="115" xr3:uid="{1385B247-C67B-9941-919B-7552FB975CF8}" name="H2O_d18O_permil_VSMOW" dataDxfId="73"/>
+    <tableColumn id="116" xr3:uid="{B4C0BA93-4D2A-DF4D-9386-B2835E8A4E88}" name="H2O_d18O_unc_permil" dataDxfId="72"/>
+    <tableColumn id="117" xr3:uid="{05F5AFF9-BD89-D84C-AC24-7DDC8241F942}" name="H2O_dD_permil_VSMOW" dataDxfId="71"/>
+    <tableColumn id="118" xr3:uid="{713A26B4-6D4B-5D47-98DF-149F69DE535E}" name="H2O_dD_unc_permil" dataDxfId="70"/>
+    <tableColumn id="123" xr3:uid="{394217D2-037C-9541-AC72-CF7D6FAF258D}" name="CO_uM" dataDxfId="69"/>
+    <tableColumn id="124" xr3:uid="{0252A4FB-4F58-FC42-8AB2-32128FB1B6C5}" name="CO_was_measured" dataDxfId="68"/>
+    <tableColumn id="125" xr3:uid="{02FE847A-1C12-C54D-9692-856375431D4A}" name="CO_unc_uM" dataDxfId="67"/>
+    <tableColumn id="126" xr3:uid="{E81C3B46-C776-2147-8B51-5EA2D071ECA4}" name="CO_LQ_uM" dataDxfId="66"/>
+    <tableColumn id="127" xr3:uid="{70E70B01-55BA-E145-9409-1A909B943CEE}" name="H2_uM" dataDxfId="65"/>
+    <tableColumn id="128" xr3:uid="{02604155-A51C-B94F-A371-F67F7892F2E8}" name="H2_was_measured" dataDxfId="64"/>
+    <tableColumn id="129" xr3:uid="{F803235E-36AF-2C46-A02E-F5512CA7110B}" name="H2_unc_uM" dataDxfId="63"/>
+    <tableColumn id="130" xr3:uid="{E216C148-9E3B-EF45-8733-B1EFC7AE968B}" name="H2_LQ_uM" dataDxfId="62"/>
+    <tableColumn id="131" xr3:uid="{A64F19CE-C8B4-A349-A97E-8C4F7F898AFB}" name="CH4_uM" dataDxfId="61"/>
+    <tableColumn id="132" xr3:uid="{16EF7D37-1886-1E49-B641-492831922EDC}" name="CH4_was_measured" dataDxfId="60"/>
+    <tableColumn id="133" xr3:uid="{1B8F9678-700E-8D48-9BDC-CF2B3829EB55}" name="CH4_unc_uM" dataDxfId="59"/>
+    <tableColumn id="134" xr3:uid="{A2DAB224-F4D4-A340-8CAC-F8DF21E35777}" name="CH4_LQ_uM" dataDxfId="58"/>
+    <tableColumn id="135" xr3:uid="{5B0F0A62-4B79-A441-BEC9-B2663CAB4AB6}" name="C2H6_uM" dataDxfId="57"/>
+    <tableColumn id="136" xr3:uid="{4B938156-CE1D-1747-A9B3-2F310CC4F2F6}" name="C2H6_was_measured" dataDxfId="56"/>
+    <tableColumn id="137" xr3:uid="{F613E583-ECC5-DE4D-886B-AF7186EBEFEA}" name="C2H6_unc_uM" dataDxfId="55"/>
+    <tableColumn id="138" xr3:uid="{6E77E2E0-34DC-254D-9C69-CD29D5CF3BC6}" name="C2H6_LQ_uM" dataDxfId="54"/>
+    <tableColumn id="139" xr3:uid="{73B58BDF-CFA3-A243-8E17-01BCC943EAED}" name="C3H8_uM" dataDxfId="53"/>
+    <tableColumn id="140" xr3:uid="{4595B0FF-F034-B14B-921B-62E1EB81AD9F}" name="C3H8_was_measured" dataDxfId="52"/>
+    <tableColumn id="141" xr3:uid="{AB285C5B-188E-054B-B967-106D380FDEF6}" name="C3H8_unc_uM" dataDxfId="51"/>
+    <tableColumn id="142" xr3:uid="{79D3AED7-429A-5040-B19F-E130E1BFBADD}" name="C3H8_LQ_uM" dataDxfId="50"/>
+    <tableColumn id="143" xr3:uid="{0B1A4469-E090-4644-B1A9-4ABA1286CE27}" name="i_C4H10_uM" dataDxfId="49"/>
+    <tableColumn id="144" xr3:uid="{AA8F5ABD-7D75-D941-8D8F-587155F28E9E}" name="i_C4H10_was_measured" dataDxfId="48"/>
+    <tableColumn id="145" xr3:uid="{DA214AC7-2DD1-674D-A08F-F49D96B2D7B7}" name="i_C4H10_unc_uM" dataDxfId="47"/>
+    <tableColumn id="146" xr3:uid="{7375F938-224F-2C4F-A6D7-2F3194B0BEA9}" name="i_C4H10_LQ_uM" dataDxfId="46"/>
+    <tableColumn id="147" xr3:uid="{D582ADE0-52F3-594C-92AB-D5C9421078A6}" name="n_C4H10_uM" dataDxfId="45"/>
+    <tableColumn id="148" xr3:uid="{D9D7DB74-D9D7-914D-8BF8-AD477FE68E85}" name="n_C4H10_was_measured" dataDxfId="44"/>
+    <tableColumn id="149" xr3:uid="{2DDB8A23-1941-9E49-9C09-F862FC53831F}" name="n_C4H10_unc_uM" dataDxfId="43"/>
+    <tableColumn id="150" xr3:uid="{84790C19-9741-594D-9BDD-AB06ACB171D4}" name="n_C4H10_LQ_uM" dataDxfId="42"/>
+    <tableColumn id="151" xr3:uid="{1AA47EEE-F144-9345-9DE6-3ED4071258C7}" name="i_C5H12_uM" dataDxfId="41"/>
+    <tableColumn id="152" xr3:uid="{84819688-CACD-1E49-9B4C-F87821314633}" name="i_C5H12_was_measured" dataDxfId="40"/>
+    <tableColumn id="153" xr3:uid="{758BF6F8-058E-9F4D-8159-79698B2543BE}" name="i_C5H12_unc_uM" dataDxfId="39"/>
+    <tableColumn id="154" xr3:uid="{D20613A5-314A-BF4F-BC08-B68BA28C4745}" name="i_C5H12_LQ_uM" dataDxfId="38"/>
+    <tableColumn id="155" xr3:uid="{63DF478E-BCEF-5E47-8B85-DE6CB68A3881}" name="n_C5H12_uM" dataDxfId="37"/>
+    <tableColumn id="156" xr3:uid="{33B84D12-3AC6-9941-86C4-D09BDF8A065F}" name="n_C5H12_was_measured" dataDxfId="36"/>
+    <tableColumn id="157" xr3:uid="{9EE65B61-5C74-3B49-A4DF-0F0DD7EAFA0B}" name="n_C5H12_unc_uM" dataDxfId="35"/>
+    <tableColumn id="158" xr3:uid="{A2E4BB76-1001-1A4C-912C-0463BED9C4EE}" name="n_C5H12_LQ_uM" dataDxfId="34"/>
+    <tableColumn id="159" xr3:uid="{803A16A1-C385-994E-88CF-AE8016FA4C11}" name="C6H14_uM" dataDxfId="33"/>
+    <tableColumn id="160" xr3:uid="{95E28F64-B963-CC47-9F1B-F89D6D620D9B}" name="C6H14_was_measured" dataDxfId="32"/>
+    <tableColumn id="161" xr3:uid="{65B62C8E-2CE4-7C48-812F-9BCCDC62C155}" name="C6H14_unc_uM" dataDxfId="31"/>
+    <tableColumn id="162" xr3:uid="{5DC80E3B-AF76-8D4E-9FC6-CC44F22FDE70}" name="C6H12_LQ_uM" dataDxfId="30"/>
+    <tableColumn id="163" xr3:uid="{94B26A97-3FC7-4243-A0EF-614C891F43C3}" name="H2_dD_permil_VSMOW" dataDxfId="29"/>
+    <tableColumn id="164" xr3:uid="{99B98F77-5335-8A43-9F40-89B42D4D207A}" name="H2_dD_unc_permil" dataDxfId="28"/>
+    <tableColumn id="165" xr3:uid="{0EBD0053-DB4F-794F-BBD5-D9F5EB028658}" name="CH4_d13C_permil_VPDB_LBNL" dataDxfId="27"/>
+    <tableColumn id="166" xr3:uid="{E9B44186-0496-2C42-9657-9C540E51F7D8}" name="CH4_d13C_unc_permil_LBNL" dataDxfId="26"/>
+    <tableColumn id="167" xr3:uid="{DF9396ED-54CD-1640-BB83-7425AA8FB1C3}" name="CH4_d13C_permil_VPDB_CUB" dataDxfId="25"/>
+    <tableColumn id="168" xr3:uid="{934E179F-D945-5248-9AA8-F27DA53FA4EB}" name="CH4_d13C_unc_permil_CUB" dataDxfId="24"/>
+    <tableColumn id="169" xr3:uid="{81B76F2F-2CDC-B147-80A4-6D498FA6D549}" name="CH4_d13C_permil_VPDB_MIT" dataDxfId="23"/>
+    <tableColumn id="170" xr3:uid="{0A5BCA68-E159-7047-81A9-3178CA07347F}" name="CH4_d13C_unc_permil_MIT" dataDxfId="22"/>
+    <tableColumn id="171" xr3:uid="{52FE9FDA-CDF8-B849-8484-AA3E1D1BDF2F}" name="CH4_d13C_permil_VPDB_UCLA" dataDxfId="21"/>
+    <tableColumn id="172" xr3:uid="{188F87DC-C622-B746-A0DD-95F247E01320}" name="CH4_d13C_unc_permil_UCLA" dataDxfId="20"/>
+    <tableColumn id="241" xr3:uid="{42554472-E885-A240-A96E-D5818D514FBB}" name="CH4_d13C_permil_VPDB_ISOTECH" dataDxfId="19"/>
+    <tableColumn id="240" xr3:uid="{0CBF00A2-9EC5-FA42-AD9A-D3AA42C35F45}" name="CH4_d13C_unc_permil_ISOTECH" dataDxfId="18"/>
     <tableColumn id="173" xr3:uid="{85A9ECA3-A4A9-194B-A745-A01F2E701C13}" name="CH4_dD_permil_VSMOW_LBNL" dataDxfId="17"/>
     <tableColumn id="174" xr3:uid="{1DA59151-E6F6-8D47-B82F-C718191627FB}" name="CH4_dD_unc_permil_LBNL" dataDxfId="16"/>
     <tableColumn id="175" xr3:uid="{686F8A40-EF62-144D-BDEC-FA4060275B7B}" name="CH4_dD_permil_VSMOW_CUB" dataDxfId="15"/>
@@ -8770,13 +8851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB11BABD-C7A2-BB46-B0A7-190733773DAE}">
-  <dimension ref="A1:HO52"/>
+  <dimension ref="A1:HQ52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="HM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="HS17" sqref="HS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8787,9 +8868,9 @@
     <col min="4" max="4" width="6.6640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="5.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="42" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="43" customWidth="1"/>
     <col min="11" max="11" width="6.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.5" style="1" customWidth="1"/>
     <col min="13" max="14" width="7.6640625" style="1" customWidth="1"/>
@@ -8802,7 +8883,7 @@
     <col min="21" max="21" width="21" style="1" customWidth="1"/>
     <col min="22" max="24" width="21.83203125" style="1" customWidth="1"/>
     <col min="25" max="25" width="19" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" style="40" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" style="41" customWidth="1"/>
     <col min="27" max="27" width="10.5" style="1" customWidth="1"/>
     <col min="28" max="28" width="21.6640625" style="1" customWidth="1"/>
     <col min="29" max="29" width="7.33203125" style="1" customWidth="1"/>
@@ -8936,32 +9017,29 @@
     <col min="202" max="202" width="34.6640625" style="1" customWidth="1"/>
     <col min="203" max="203" width="36.6640625" style="1" customWidth="1"/>
     <col min="204" max="204" width="33.33203125" style="1" customWidth="1"/>
-    <col min="205" max="205" width="35" style="1" customWidth="1"/>
-    <col min="206" max="206" width="33.33203125" style="1" customWidth="1"/>
-    <col min="207" max="207" width="37.83203125" style="1" customWidth="1"/>
-    <col min="208" max="208" width="34.6640625" style="1" customWidth="1"/>
-    <col min="209" max="209" width="37.1640625" style="1" customWidth="1"/>
-    <col min="210" max="210" width="32" style="1" customWidth="1"/>
-    <col min="211" max="211" width="36.6640625" style="1" customWidth="1"/>
-    <col min="212" max="212" width="31.1640625" style="1" customWidth="1"/>
-    <col min="213" max="213" width="35" style="1" customWidth="1"/>
-    <col min="214" max="214" width="30.6640625" style="1" customWidth="1"/>
-    <col min="215" max="215" width="37.83203125" style="1" customWidth="1"/>
-    <col min="216" max="216" width="32.1640625" style="1" customWidth="1"/>
-    <col min="217" max="217" width="29.5" style="1" customWidth="1"/>
-    <col min="218" max="218" width="34.6640625" style="1" customWidth="1"/>
-    <col min="219" max="219" width="31.1640625" style="1" customWidth="1"/>
-    <col min="220" max="220" width="36" style="1" customWidth="1"/>
-    <col min="221" max="221" width="32.1640625" style="1" customWidth="1"/>
-    <col min="222" max="222" width="37.1640625" style="1" customWidth="1"/>
-    <col min="223" max="223" width="31.6640625" style="1" customWidth="1"/>
-    <col min="224" max="224" width="29.5" style="1" customWidth="1"/>
+    <col min="205" max="207" width="35" style="1" customWidth="1"/>
+    <col min="208" max="208" width="33.33203125" style="1" customWidth="1"/>
+    <col min="209" max="209" width="37.83203125" style="1" customWidth="1"/>
+    <col min="210" max="210" width="34.6640625" style="1" customWidth="1"/>
+    <col min="211" max="211" width="37.1640625" style="1" customWidth="1"/>
+    <col min="212" max="212" width="32" style="1" customWidth="1"/>
+    <col min="213" max="213" width="36.6640625" style="1" customWidth="1"/>
+    <col min="214" max="214" width="31.1640625" style="1" customWidth="1"/>
+    <col min="215" max="215" width="35" style="1" customWidth="1"/>
+    <col min="216" max="216" width="30.6640625" style="1" customWidth="1"/>
+    <col min="217" max="217" width="37.83203125" style="1" customWidth="1"/>
+    <col min="218" max="218" width="32.1640625" style="1" customWidth="1"/>
+    <col min="219" max="219" width="29.5" style="1" customWidth="1"/>
+    <col min="220" max="220" width="34.6640625" style="1" customWidth="1"/>
+    <col min="221" max="221" width="31.1640625" style="1" customWidth="1"/>
+    <col min="222" max="222" width="36" style="1" customWidth="1"/>
+    <col min="223" max="223" width="32.1640625" style="1" customWidth="1"/>
+    <col min="224" max="224" width="37.1640625" style="1" customWidth="1"/>
     <col min="225" max="225" width="31.6640625" style="1" customWidth="1"/>
-    <col min="226" max="226" width="29.5" style="1" customWidth="1"/>
-    <col min="227" max="16384" width="10.83203125" style="1"/>
+    <col min="226" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>260</v>
       </c>
@@ -9578,61 +9656,67 @@
         <v>70</v>
       </c>
       <c r="GX1" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="GY1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="GZ1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="GY1" s="3" t="s">
+      <c r="HA1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="GZ1" s="3" t="s">
+      <c r="HB1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="HA1" s="3" t="s">
+      <c r="HC1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="HB1" s="3" t="s">
+      <c r="HD1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="HC1" s="3" t="s">
+      <c r="HE1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="HD1" s="3" t="s">
+      <c r="HF1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="HE1" s="3" t="s">
+      <c r="HG1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="HF1" s="3" t="s">
+      <c r="HH1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="HG1" s="3" t="s">
+      <c r="HI1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="HH1" s="3" t="s">
+      <c r="HJ1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="HI1" s="3" t="s">
+      <c r="HK1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="HJ1" s="3" t="s">
+      <c r="HL1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="HK1" s="3" t="s">
+      <c r="HM1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="HL1" s="3" t="s">
+      <c r="HN1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="HM1" s="3" t="s">
+      <c r="HO1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="HN1" s="3" t="s">
+      <c r="HP1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="HO1" s="3" t="s">
+      <c r="HQ1" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
@@ -9780,7 +9864,7 @@
       <c r="AW2" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX2" s="48">
+      <c r="AX2" s="49">
         <v>1.49116</v>
       </c>
       <c r="AY2" s="20">
@@ -10248,62 +10332,68 @@
       <c r="GW2" s="14">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="GX2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GZ2" s="14">
+      <c r="GX2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HB2" s="14">
         <v>-206</v>
       </c>
-      <c r="HA2" s="14">
+      <c r="HC2" s="14">
         <v>6</v>
       </c>
-      <c r="HB2" s="14">
+      <c r="HD2" s="14">
         <v>-190.32</v>
-      </c>
-      <c r="HC2" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="HD2" s="14">
-        <v>-197.73</v>
       </c>
       <c r="HE2" s="14">
         <v>0.04</v>
       </c>
       <c r="HF2" s="14">
+        <v>-197.73</v>
+      </c>
+      <c r="HG2" s="14">
+        <v>0.04</v>
+      </c>
+      <c r="HH2" s="14">
         <v>2.87</v>
       </c>
-      <c r="HG2" s="14">
+      <c r="HI2" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="HH2" s="14">
+      <c r="HJ2" s="14">
         <v>2.6379999999999999</v>
       </c>
-      <c r="HI2" s="14">
+      <c r="HK2" s="14">
         <v>0.28399999999999997</v>
       </c>
-      <c r="HJ2" s="14">
+      <c r="HL2" s="14">
         <v>-1.2669999999999999</v>
       </c>
-      <c r="HK2" s="14">
+      <c r="HM2" s="14">
         <v>0.88600000000000001</v>
       </c>
-      <c r="HL2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="HM2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="HN2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HO2" s="14" t="s">
+      <c r="HN2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="HO2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="HP2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>129</v>
       </c>
@@ -10925,56 +11015,62 @@
       <c r="GY3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="GZ3" s="5">
+      <c r="GZ3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HB3" s="5">
         <v>-229</v>
       </c>
-      <c r="HA3" s="5">
+      <c r="HC3" s="5">
         <v>6</v>
       </c>
-      <c r="HB3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HC3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HD3" s="5">
+      <c r="HD3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HE3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HF3" s="5">
         <v>-227.39599999999999</v>
       </c>
-      <c r="HE3" s="5">
+      <c r="HG3" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="HF3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HG3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HH3" s="5">
+      <c r="HH3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HI3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HJ3" s="5">
         <v>0.22900000000000001</v>
       </c>
-      <c r="HI3" s="5">
+      <c r="HK3" s="5">
         <v>0.28799999999999998</v>
       </c>
-      <c r="HJ3" s="5">
+      <c r="HL3" s="5">
         <v>-24.501999999999999</v>
       </c>
-      <c r="HK3" s="5">
+      <c r="HM3" s="5">
         <v>0.94399999999999995</v>
       </c>
-      <c r="HL3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="HM3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="HN3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HO3" s="14" t="s">
+      <c r="HN3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="HO3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="HP3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
@@ -11122,7 +11218,7 @@
       <c r="AW4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX4" s="48">
+      <c r="AX4" s="40">
         <v>1.49116</v>
       </c>
       <c r="AY4" s="20">
@@ -11590,62 +11686,68 @@
       <c r="GW4" s="14">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="GX4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GZ4" s="14">
+      <c r="GX4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HB4" s="14">
         <v>-314</v>
       </c>
-      <c r="HA4" s="14">
+      <c r="HC4" s="14">
         <v>8</v>
       </c>
-      <c r="HB4" s="14">
+      <c r="HD4" s="14">
         <v>-311.73</v>
-      </c>
-      <c r="HC4" s="14">
-        <v>0.06</v>
-      </c>
-      <c r="HD4" s="14">
-        <v>-293.58</v>
       </c>
       <c r="HE4" s="14">
         <v>0.06</v>
       </c>
       <c r="HF4" s="14">
+        <v>-293.58</v>
+      </c>
+      <c r="HG4" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="HH4" s="14">
         <v>0.77</v>
       </c>
-      <c r="HG4" s="14">
+      <c r="HI4" s="14">
         <v>0.44</v>
       </c>
-      <c r="HH4" s="14">
+      <c r="HJ4" s="14">
         <v>2.0739999999999998</v>
       </c>
-      <c r="HI4" s="14">
+      <c r="HK4" s="14">
         <v>0.29799999999999999</v>
       </c>
-      <c r="HJ4" s="14">
+      <c r="HL4" s="14">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="HK4" s="14">
+      <c r="HM4" s="14">
         <v>1.3580000000000001</v>
       </c>
-      <c r="HL4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="HM4" s="19" t="s">
-        <v>14</v>
-      </c>
       <c r="HN4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="HO4" s="19" t="s">
         <v>14</v>
       </c>
+      <c r="HP4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ4" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -11793,7 +11895,7 @@
       <c r="AW5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX5" s="48">
+      <c r="AX5" s="49">
         <v>1.49116</v>
       </c>
       <c r="AY5" s="20">
@@ -12315,8 +12417,14 @@
       <c r="HO5" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ5" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -12464,7 +12572,7 @@
       <c r="AW6" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX6" s="48">
+      <c r="AX6" s="49">
         <v>1.49116</v>
       </c>
       <c r="AY6" s="20">
@@ -12986,8 +13094,14 @@
       <c r="HO6" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ6" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:223" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:225" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
@@ -13135,7 +13249,7 @@
       <c r="AW7" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX7" s="48">
+      <c r="AX7" s="49">
         <v>1.49116</v>
       </c>
       <c r="AY7" s="20">
@@ -13657,8 +13771,14 @@
       <c r="HO7" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ7" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
@@ -13806,7 +13926,7 @@
       <c r="AW8" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX8" s="48">
+      <c r="AX8" s="49">
         <v>1.49116</v>
       </c>
       <c r="AY8" s="20">
@@ -14274,10 +14394,10 @@
       <c r="GW8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY8" s="14" t="s">
+      <c r="GX8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ8" s="14" t="s">
@@ -14328,8 +14448,14 @@
       <c r="HO8" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ8" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="9" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>9</v>
       </c>
@@ -14477,7 +14603,7 @@
       <c r="AW9" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX9" s="48">
+      <c r="AX9" s="49">
         <v>1.49116</v>
       </c>
       <c r="AY9" s="20">
@@ -14945,10 +15071,10 @@
       <c r="GW9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX9" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY9" s="14" t="s">
+      <c r="GX9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ9" s="14" t="s">
@@ -14999,8 +15125,14 @@
       <c r="HO9" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ9" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
@@ -15148,7 +15280,7 @@
       <c r="AW10" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="AX10" s="48">
+      <c r="AX10" s="49">
         <v>1.49116</v>
       </c>
       <c r="AY10" s="20">
@@ -15622,28 +15754,28 @@
       <c r="GY10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="GZ10" s="5">
+      <c r="GZ10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HB10" s="5">
         <v>-307</v>
       </c>
-      <c r="HA10" s="5">
+      <c r="HC10" s="5">
         <v>8</v>
       </c>
-      <c r="HB10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HC10" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="HD10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="HE10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="HF10" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HG10" s="14" t="s">
+      <c r="HF10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HG10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="HH10" s="14" t="s">
@@ -15670,9 +15802,15 @@
       <c r="HO10" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ10" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+    <row r="11" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48" t="s">
         <v>129</v>
       </c>
       <c r="B11" s="31">
@@ -16287,42 +16425,42 @@
       <c r="GW11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="GX11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="GZ11" s="31">
+      <c r="GX11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="HB11" s="31">
         <v>-225</v>
       </c>
-      <c r="HA11" s="31">
+      <c r="HC11" s="31">
         <v>6</v>
       </c>
-      <c r="HB11" s="31">
+      <c r="HD11" s="31">
         <v>-229.67</v>
       </c>
-      <c r="HC11" s="31">
+      <c r="HE11" s="31">
         <v>0.05</v>
       </c>
-      <c r="HD11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="HE11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="HF11" s="18">
+      <c r="HF11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="HG11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="HH11" s="18">
         <v>0.12</v>
       </c>
-      <c r="HG11" s="31">
+      <c r="HI11" s="31">
         <v>0.17</v>
       </c>
-      <c r="HH11" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="HI11" s="31" t="s">
-        <v>14</v>
-      </c>
       <c r="HJ11" s="31" t="s">
         <v>14</v>
       </c>
@@ -16341,8 +16479,14 @@
       <c r="HO11" s="31" t="s">
         <v>14</v>
       </c>
+      <c r="HP11" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ11" s="31" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="12" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>1</v>
       </c>
@@ -16988,10 +17132,10 @@
       <c r="HG12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="HH12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HI12" s="14" t="s">
+      <c r="HH12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HI12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="HJ12" s="14" t="s">
@@ -17012,8 +17156,14 @@
       <c r="HO12" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ12" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="13" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>1</v>
       </c>
@@ -17659,10 +17809,10 @@
       <c r="HG13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="HH13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HI13" s="14" t="s">
+      <c r="HH13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HI13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="HJ13" s="14" t="s">
@@ -17683,8 +17833,14 @@
       <c r="HO13" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ13" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>1</v>
       </c>
@@ -18306,56 +18462,62 @@
       <c r="GY14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="GZ14" s="5">
+      <c r="GZ14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HB14" s="5">
         <v>-271</v>
       </c>
-      <c r="HA14" s="5">
+      <c r="HC14" s="5">
         <v>7</v>
       </c>
-      <c r="HB14" s="5">
+      <c r="HD14" s="5">
         <v>-268.82</v>
       </c>
-      <c r="HC14" s="5">
+      <c r="HE14" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="HD14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HE14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HF14" s="5">
+      <c r="HF14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HG14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HH14" s="5">
         <v>0.69</v>
       </c>
-      <c r="HG14" s="5">
+      <c r="HI14" s="5">
         <v>0.23</v>
       </c>
-      <c r="HH14" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HI14" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="HJ14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="HK14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="HL14" s="14">
+      <c r="HL14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HM14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HN14" s="14">
         <v>-6</v>
-      </c>
-      <c r="HM14" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="HN14" s="14">
-        <v>3.3</v>
       </c>
       <c r="HO14" s="14">
         <v>0.6</v>
       </c>
+      <c r="HP14" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="HQ14" s="14">
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="15" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>0</v>
       </c>
@@ -19025,8 +19187,14 @@
       <c r="HO15" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ15" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="16" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>4</v>
       </c>
@@ -19696,8 +19864,14 @@
       <c r="HO16" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ16" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>5</v>
       </c>
@@ -20367,8 +20541,14 @@
       <c r="HO17" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ17" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="18" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>10</v>
       </c>
@@ -20984,10 +21164,10 @@
       <c r="GW18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX18" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY18" s="14" t="s">
+      <c r="GX18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY18" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ18" s="14" t="s">
@@ -21038,8 +21218,14 @@
       <c r="HO18" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ18" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="19" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>9</v>
       </c>
@@ -21655,10 +21841,10 @@
       <c r="GW19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX19" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY19" s="14" t="s">
+      <c r="GX19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ19" s="14" t="s">
@@ -21709,8 +21895,14 @@
       <c r="HO19" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ19" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="20" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
@@ -22326,10 +22518,10 @@
       <c r="GW20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX20" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY20" s="14" t="s">
+      <c r="GX20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ20" s="14" t="s">
@@ -22380,8 +22572,14 @@
       <c r="HO20" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP20" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ20" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="21" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>3</v>
       </c>
@@ -22997,24 +23195,24 @@
       <c r="GW21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GZ21" s="5">
+      <c r="GX21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HB21" s="5">
         <v>-313</v>
       </c>
-      <c r="HA21" s="5">
+      <c r="HC21" s="5">
         <v>8</v>
       </c>
-      <c r="HB21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HC21" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="HD21" s="14" t="s">
         <v>14</v>
       </c>
@@ -23051,8 +23249,14 @@
       <c r="HO21" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ21" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="22" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
@@ -23536,19 +23740,19 @@
       <c r="FE22" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="FF22" s="49" t="s">
+      <c r="FF22" s="51" t="s">
         <v>14</v>
       </c>
       <c r="FG22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="FH22" s="49" t="s">
+      <c r="FH22" s="51" t="s">
         <v>14</v>
       </c>
       <c r="FI22" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="FJ22" s="49" t="s">
+      <c r="FJ22" s="51" t="s">
         <v>14</v>
       </c>
       <c r="FK22" s="25" t="s">
@@ -23566,7 +23770,7 @@
       <c r="FO22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="FP22" s="49" t="s">
+      <c r="FP22" s="51" t="s">
         <v>14</v>
       </c>
       <c r="FQ22" s="26" t="b">
@@ -23578,7 +23782,7 @@
       <c r="FS22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="FT22" s="49" t="s">
+      <c r="FT22" s="51" t="s">
         <v>14</v>
       </c>
       <c r="FU22" s="26" t="b">
@@ -23590,7 +23794,7 @@
       <c r="FW22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="FX22" s="49" t="s">
+      <c r="FX22" s="51" t="s">
         <v>14</v>
       </c>
       <c r="FY22" s="26" t="b">
@@ -23602,7 +23806,7 @@
       <c r="GA22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="GB22" s="49" t="s">
+      <c r="GB22" s="51" t="s">
         <v>14</v>
       </c>
       <c r="GC22" s="26" t="b">
@@ -23614,7 +23818,7 @@
       <c r="GE22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="GF22" s="49" t="s">
+      <c r="GF22" s="51" t="s">
         <v>14</v>
       </c>
       <c r="GG22" s="26" t="b">
@@ -23650,7 +23854,7 @@
       <c r="GQ22" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GR22" s="51" t="s">
+      <c r="GR22" s="52" t="s">
         <v>14</v>
       </c>
       <c r="GS22" s="5">
@@ -23674,16 +23878,16 @@
       <c r="GY22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="GZ22" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="HA22" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="HB22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HC22" s="5" t="s">
+      <c r="GZ22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HB22" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="HC22" s="53" t="s">
         <v>14</v>
       </c>
       <c r="HD22" s="5" t="s">
@@ -23710,20 +23914,26 @@
       <c r="HK22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="HL22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="HM22" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="HN22" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HO22" s="14" t="s">
+      <c r="HL22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HM22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HN22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="HO22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="HP22" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ22" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>8</v>
       </c>
@@ -24393,8 +24603,14 @@
       <c r="HO23" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ23" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="24" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>1</v>
       </c>
@@ -25010,42 +25226,42 @@
       <c r="GW24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="GX24" s="5">
+      <c r="GX24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ24" s="5">
         <v>-273</v>
       </c>
-      <c r="GY24" s="5">
+      <c r="HA24" s="5">
         <v>5</v>
       </c>
-      <c r="GZ24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HA24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HB24" s="5">
+      <c r="HB24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HC24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HD24" s="5">
         <v>-308.52</v>
       </c>
-      <c r="HC24" s="5">
+      <c r="HE24" s="5">
         <v>0.08</v>
       </c>
-      <c r="HD24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HE24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HF24" s="5">
+      <c r="HF24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HG24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HH24" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="HG24" s="5">
+      <c r="HI24" s="5">
         <v>0.17</v>
       </c>
-      <c r="HH24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HI24" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="HJ24" s="14" t="s">
         <v>14</v>
       </c>
@@ -25064,8 +25280,14 @@
       <c r="HO24" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP24" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ24" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="25" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>7</v>
       </c>
@@ -25735,8 +25957,14 @@
       <c r="HO25" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ25" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="26" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>4</v>
       </c>
@@ -26406,8 +26634,14 @@
       <c r="HO26" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ26" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="27" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>5</v>
       </c>
@@ -27077,57 +27311,63 @@
       <c r="HO27" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ27" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="28" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+    <row r="28" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44" t="s">
         <v>261</v>
       </c>
       <c r="B28" s="31">
         <v>2016</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="45">
         <v>3</v>
       </c>
-      <c r="D28" s="44">
+      <c r="D28" s="45">
         <v>3</v>
       </c>
-      <c r="E28" s="44">
+      <c r="E28" s="45">
         <v>50</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="45" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="44">
+      <c r="H28" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="45">
         <v>77</v>
       </c>
-      <c r="M28" s="44">
+      <c r="M28" s="45">
         <v>65.5</v>
       </c>
       <c r="N28" s="16">
         <v>1</v>
       </c>
-      <c r="O28" s="44" t="s">
+      <c r="O28" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="45">
         <v>42.9</v>
       </c>
-      <c r="Q28" s="44" t="s">
+      <c r="Q28" s="45" t="s">
         <v>14</v>
       </c>
       <c r="R28" s="14" t="s">
@@ -27694,10 +27934,10 @@
       <c r="GW28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY28" s="14" t="s">
+      <c r="GX28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ28" s="14" t="s">
@@ -27748,8 +27988,14 @@
       <c r="HO28" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ28" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="29" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>10</v>
       </c>
@@ -28365,10 +28611,10 @@
       <c r="GW29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX29" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY29" s="14" t="s">
+      <c r="GX29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ29" s="14" t="s">
@@ -28419,8 +28665,14 @@
       <c r="HO29" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ29" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="30" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>9</v>
       </c>
@@ -29036,10 +29288,10 @@
       <c r="GW30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX30" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY30" s="14" t="s">
+      <c r="GX30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ30" s="14" t="s">
@@ -29090,8 +29342,14 @@
       <c r="HO30" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP30" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ30" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="31" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>2</v>
       </c>
@@ -29707,10 +29965,10 @@
       <c r="GW31" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX31" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY31" s="14" t="s">
+      <c r="GX31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ31" s="14" t="s">
@@ -29761,8 +30019,14 @@
       <c r="HO31" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ31" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="32" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -29805,7 +30069,7 @@
       <c r="N32" s="16">
         <v>1</v>
       </c>
-      <c r="O32" s="45" t="s">
+      <c r="O32" s="46" t="s">
         <v>225</v>
       </c>
       <c r="P32" s="1">
@@ -30378,10 +30642,10 @@
       <c r="GW32" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX32" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY32" s="14" t="s">
+      <c r="GX32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ32" s="14" t="s">
@@ -30432,8 +30696,14 @@
       <c r="HO32" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP32" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ32" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="33" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>129</v>
       </c>
@@ -31047,42 +31317,42 @@
       <c r="GW33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX33" s="14">
+      <c r="GX33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ33" s="14">
         <v>-209</v>
       </c>
-      <c r="GY33" s="14">
+      <c r="HA33" s="14">
         <v>5</v>
       </c>
-      <c r="GZ33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HA33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HB33" s="14">
+      <c r="HB33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HC33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HD33" s="14">
         <v>-230</v>
       </c>
-      <c r="HC33" s="14">
+      <c r="HE33" s="14">
         <v>0.1</v>
       </c>
-      <c r="HD33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HE33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HF33" s="14">
+      <c r="HF33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HG33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HH33" s="14">
         <v>0.72</v>
       </c>
-      <c r="HG33" s="14">
+      <c r="HI33" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="HH33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HI33" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="HJ33" s="5" t="s">
         <v>14</v>
       </c>
@@ -31101,8 +31371,14 @@
       <c r="HO33" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ33" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="34" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>1</v>
       </c>
@@ -31718,18 +31994,18 @@
       <c r="GW34" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX34" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY34" s="14">
+      <c r="GX34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HA34" s="14">
         <v>5</v>
       </c>
-      <c r="GZ34" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="HA34" s="14" t="s">
-        <v>14</v>
-      </c>
       <c r="HB34" s="14" t="s">
         <v>14</v>
       </c>
@@ -31772,8 +32048,14 @@
       <c r="HO34" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP34" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ34" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="35" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>6</v>
       </c>
@@ -32443,8 +32725,14 @@
       <c r="HO35" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ35" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="36" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
@@ -33114,8 +33402,14 @@
       <c r="HO36" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ36" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="37" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>7</v>
       </c>
@@ -33785,8 +34079,14 @@
       <c r="HO37" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ37" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="38" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>10</v>
       </c>
@@ -34402,10 +34702,10 @@
       <c r="GW38" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX38" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY38" s="14" t="s">
+      <c r="GX38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ38" s="14" t="s">
@@ -34456,8 +34756,14 @@
       <c r="HO38" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP38" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ38" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="39" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>9</v>
       </c>
@@ -35073,10 +35379,10 @@
       <c r="GW39" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX39" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY39" s="14" t="s">
+      <c r="GX39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ39" s="14" t="s">
@@ -35127,8 +35433,14 @@
       <c r="HO39" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP39" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ39" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="40" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>2</v>
       </c>
@@ -35744,10 +36056,10 @@
       <c r="GW40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX40" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY40" s="14" t="s">
+      <c r="GX40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ40" s="14" t="s">
@@ -35798,8 +36110,14 @@
       <c r="HO40" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP40" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ40" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="41" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
         <v>3</v>
       </c>
@@ -36415,10 +36733,10 @@
       <c r="GW41" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX41" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY41" s="14" t="s">
+      <c r="GX41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ41" s="14" t="s">
@@ -36469,8 +36787,14 @@
       <c r="HO41" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ41" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="42" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="27" t="s">
         <v>129</v>
       </c>
@@ -37086,18 +37410,18 @@
       <c r="GW42" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX42" s="14">
+      <c r="GX42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ42" s="14">
         <v>-205</v>
       </c>
-      <c r="GY42" s="14">
+      <c r="HA42" s="14">
         <v>5</v>
       </c>
-      <c r="GZ42" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="HA42" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="HB42" s="5" t="s">
         <v>14</v>
       </c>
@@ -37140,8 +37464,14 @@
       <c r="HO42" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="HP42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ42" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="43" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="27" t="s">
         <v>1</v>
       </c>
@@ -37757,10 +38087,10 @@
       <c r="GW43" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX43" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY43" s="14" t="s">
+      <c r="GX43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ43" s="14" t="s">
@@ -37811,8 +38141,14 @@
       <c r="HO43" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP43" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ43" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="44" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>1</v>
       </c>
@@ -38428,18 +38764,18 @@
       <c r="GW44" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="GX44" s="29">
+      <c r="GX44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GZ44" s="29">
         <v>-232</v>
       </c>
-      <c r="GY44" s="29">
+      <c r="HA44" s="29">
         <v>5</v>
       </c>
-      <c r="GZ44" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="HA44" s="29" t="s">
-        <v>14</v>
-      </c>
       <c r="HB44" s="29" t="s">
         <v>14</v>
       </c>
@@ -38482,8 +38818,14 @@
       <c r="HO44" s="29" t="s">
         <v>14</v>
       </c>
+      <c r="HP44" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ44" s="29" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="45" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>129</v>
       </c>
@@ -39099,10 +39441,10 @@
       <c r="GW45" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX45" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY45" s="14" t="s">
+      <c r="GX45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ45" s="14" t="s">
@@ -39153,8 +39495,14 @@
       <c r="HO45" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP45" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ45" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="46" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
         <v>1</v>
       </c>
@@ -39770,10 +40118,10 @@
       <c r="GW46" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX46" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY46" s="14" t="s">
+      <c r="GX46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ46" s="14" t="s">
@@ -39824,8 +40172,14 @@
       <c r="HO46" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP46" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ46" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="47" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
         <v>1</v>
       </c>
@@ -40441,10 +40795,10 @@
       <c r="GW47" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="GX47" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY47" s="14" t="s">
+      <c r="GX47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ47" s="14" t="s">
@@ -40495,8 +40849,14 @@
       <c r="HO47" s="14" t="s">
         <v>14</v>
       </c>
+      <c r="HP47" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ47" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="48" spans="1:223" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:225" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>1</v>
       </c>
@@ -40563,10 +40923,10 @@
       <c r="V48" s="36">
         <v>2529716</v>
       </c>
-      <c r="W48" s="46">
+      <c r="W48" s="47">
         <v>22.866105586974999</v>
       </c>
-      <c r="X48" s="46">
+      <c r="X48" s="47">
         <v>58.710593627988899</v>
       </c>
       <c r="Y48" s="36">
@@ -41112,10 +41472,10 @@
       <c r="GW48" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="GX48" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="GY48" s="37" t="s">
+      <c r="GX48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="GY48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="GZ48" s="37" t="s">
@@ -41164,6 +41524,12 @@
         <v>14</v>
       </c>
       <c r="HO48" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="HP48" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="HQ48" s="37" t="s">
         <v>14</v>
       </c>
     </row>
